--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01865055644774571</v>
+        <v>0.01865055644770308</v>
       </c>
       <c r="D2">
-        <v>0.005360380234522566</v>
+        <v>0.005360380234410655</v>
       </c>
       <c r="E2">
-        <v>0.1196974753853119</v>
+        <v>0.1196974753852977</v>
       </c>
       <c r="F2">
-        <v>1.175559482275702</v>
+        <v>1.175559482275673</v>
       </c>
       <c r="G2">
-        <v>0.8565213226379456</v>
+        <v>0.8565213226379313</v>
       </c>
       <c r="H2">
-        <v>0.8762459918551002</v>
+        <v>0.8762459918550931</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.559044077713111</v>
+        <v>8.559044077713168</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.633069318350948</v>
+        <v>4.63306931835092</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01592661624163938</v>
+        <v>0.01592661624161806</v>
       </c>
       <c r="D3">
-        <v>0.003203837818604782</v>
+        <v>0.003203837818501754</v>
       </c>
       <c r="E3">
-        <v>0.1046769169910888</v>
+        <v>0.104676916991064</v>
       </c>
       <c r="F3">
         <v>0.9886625615580016</v>
       </c>
       <c r="G3">
-        <v>0.7161440816862452</v>
+        <v>0.7161440816862381</v>
       </c>
       <c r="H3">
-        <v>0.7354748304077248</v>
+        <v>0.7354748304077177</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.389951570983754</v>
+        <v>7.389951570983811</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.991068544838583</v>
+        <v>3.991068544838626</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01434988030678142</v>
+        <v>0.01434988030640483</v>
       </c>
       <c r="D4">
-        <v>0.002277887235380582</v>
+        <v>0.002277887235151432</v>
       </c>
       <c r="E4">
-        <v>0.09589160285202425</v>
+        <v>0.09589160285201359</v>
       </c>
       <c r="F4">
         <v>0.883729408447735</v>
       </c>
       <c r="G4">
-        <v>0.6383400738927705</v>
+        <v>0.6383400738927634</v>
       </c>
       <c r="H4">
         <v>0.6566884722606119</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.682701192345462</v>
+        <v>6.682701192345434</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.603998919933886</v>
+        <v>3.603998919933844</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01372736204228886</v>
+        <v>0.01372736204229952</v>
       </c>
       <c r="D5">
-        <v>0.001985778695142493</v>
+        <v>0.001985778695422269</v>
       </c>
       <c r="E5">
-        <v>0.09240639292030295</v>
+        <v>0.09240639292028519</v>
       </c>
       <c r="F5">
-        <v>0.8430923573773015</v>
+        <v>0.8430923573773299</v>
       </c>
       <c r="G5">
-        <v>0.6084487800258671</v>
+        <v>0.6084487800258813</v>
       </c>
       <c r="H5">
-        <v>0.6262358596747575</v>
+        <v>0.6262358596747504</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.396604837682332</v>
+        <v>6.396604837682389</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.4477085866625</v>
+        <v>3.447708586662529</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01362509490583008</v>
+        <v>0.01362509490594022</v>
       </c>
       <c r="D6">
-        <v>0.001942027898159004</v>
+        <v>0.001942027897910314</v>
       </c>
       <c r="E6">
-        <v>0.09183300832518881</v>
+        <v>0.09183300832517816</v>
       </c>
       <c r="F6">
-        <v>0.8364636619508161</v>
+        <v>0.8364636619508303</v>
       </c>
       <c r="G6">
-        <v>0.603587078793602</v>
+        <v>0.6035870787936233</v>
       </c>
       <c r="H6">
-        <v>0.6212718968440214</v>
+        <v>0.6212718968440285</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.349211871270967</v>
+        <v>6.349211871270938</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.421834635630532</v>
+        <v>3.421834635630475</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01434140869607248</v>
+        <v>0.01434140869604761</v>
       </c>
       <c r="D7">
-        <v>0.002273620760671058</v>
+        <v>0.002273620760664841</v>
       </c>
       <c r="E7">
-        <v>0.09584423423593336</v>
+        <v>0.09584423423591559</v>
       </c>
       <c r="F7">
-        <v>0.8831731858208656</v>
+        <v>0.8831731858208514</v>
       </c>
       <c r="G7">
-        <v>0.6379299631718993</v>
+        <v>0.6379299631719064</v>
       </c>
       <c r="H7">
-        <v>0.656271412605868</v>
+        <v>0.6562714126058822</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.678834905216377</v>
+        <v>6.678834905216348</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.601885712745101</v>
+        <v>3.60188571274513</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01768880555565744</v>
+        <v>0.01768880555565033</v>
       </c>
       <c r="D8">
-        <v>0.004524442888143909</v>
+        <v>0.004524442888074631</v>
       </c>
       <c r="E8">
         <v>0.1144177484148763</v>
       </c>
       <c r="F8">
-        <v>1.108854914063826</v>
+        <v>1.108854914063841</v>
       </c>
       <c r="G8">
-        <v>0.8061873297731594</v>
+        <v>0.8061873297731665</v>
       </c>
       <c r="H8">
-        <v>0.8259462374950033</v>
+        <v>0.8259462374950104</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.410004534118571</v>
+        <v>4.410004534118556</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02523782516614403</v>
+        <v>0.02523782516615114</v>
       </c>
       <c r="D9">
-        <v>0.01291830391627258</v>
+        <v>0.01291830391626547</v>
       </c>
       <c r="E9">
-        <v>0.1551441187542864</v>
+        <v>0.155144118754297</v>
       </c>
       <c r="F9">
-        <v>1.648038581023286</v>
+        <v>1.6480385810233</v>
       </c>
       <c r="G9">
-        <v>1.218646645350702</v>
+        <v>1.218646645350717</v>
       </c>
       <c r="H9">
         <v>1.233935017996501</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0317846277099747</v>
+        <v>0.03178462770986101</v>
       </c>
       <c r="D10">
-        <v>0.02297079760701237</v>
+        <v>0.02297079760670329</v>
       </c>
       <c r="E10">
-        <v>0.1891675412418863</v>
+        <v>0.1891675412418792</v>
       </c>
       <c r="F10">
-        <v>2.135576664500348</v>
+        <v>2.135576664500391</v>
       </c>
       <c r="G10">
-        <v>1.599764886563221</v>
+        <v>1.599764886563236</v>
       </c>
       <c r="H10">
-        <v>1.604927828214912</v>
+        <v>1.60492782821494</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.48631694728539</v>
+        <v>13.4863169472855</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -760,31 +760,31 @@
         <v>0.03510469857663168</v>
       </c>
       <c r="D11">
-        <v>0.02884255655348866</v>
+        <v>0.02884255655346735</v>
       </c>
       <c r="E11">
         <v>0.2059932327061205</v>
       </c>
       <c r="F11">
-        <v>2.387068146581811</v>
+        <v>2.387068146581825</v>
       </c>
       <c r="G11">
-        <v>1.798544109460423</v>
+        <v>1.798544109460437</v>
       </c>
       <c r="H11">
-        <v>1.796868428807386</v>
+        <v>1.7968684288074</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.58659375116019</v>
+        <v>14.58659375116014</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.985357616594456</v>
+        <v>7.985357616594399</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03642539052339799</v>
+        <v>0.03642539052337668</v>
       </c>
       <c r="D12">
-        <v>0.03130526266759937</v>
+        <v>0.03130526266759048</v>
       </c>
       <c r="E12">
-        <v>0.2126107187299482</v>
+        <v>0.2126107187299269</v>
       </c>
       <c r="F12">
         <v>2.487684202120647</v>
@@ -810,19 +810,19 @@
         <v>1.878424095418069</v>
       </c>
       <c r="H12">
-        <v>1.873752291363715</v>
+        <v>1.873752291363701</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.01085666930669</v>
+        <v>15.01085666930675</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.224053826821603</v>
+        <v>8.22405382682166</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,10 +836,10 @@
         <v>0.03613785987847251</v>
       </c>
       <c r="D13">
-        <v>0.03076322961354983</v>
+        <v>0.03076322961384559</v>
       </c>
       <c r="E13">
-        <v>0.2111735901131979</v>
+        <v>0.2111735901131837</v>
       </c>
       <c r="F13">
         <v>2.465754303332247</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.172406294514701</v>
+        <v>8.172406294514673</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03521198392317615</v>
+        <v>0.03521198392301983</v>
       </c>
       <c r="D14">
-        <v>0.02904001419229019</v>
+        <v>0.02904001419232483</v>
       </c>
       <c r="E14">
-        <v>0.206532374948857</v>
+        <v>0.2065323749488428</v>
       </c>
       <c r="F14">
-        <v>2.39523055670081</v>
+        <v>2.395230556700753</v>
       </c>
       <c r="G14">
-        <v>1.805017133195264</v>
+        <v>1.805017133195179</v>
       </c>
       <c r="H14">
-        <v>1.80310368576059</v>
+        <v>1.803103685760561</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.62133439880125</v>
+        <v>14.62133439880108</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.004889088911398</v>
+        <v>8.004889088911426</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03465361758544105</v>
+        <v>0.03465361758554764</v>
       </c>
       <c r="D15">
-        <v>0.0280174680994083</v>
+        <v>0.0280174680994012</v>
       </c>
       <c r="E15">
-        <v>0.2037233312842304</v>
+        <v>0.2037233312842233</v>
       </c>
       <c r="F15">
         <v>2.352771800635438</v>
       </c>
       <c r="G15">
-        <v>1.77136031003414</v>
+        <v>1.771360310034126</v>
       </c>
       <c r="H15">
-        <v>1.77067321748504</v>
+        <v>1.770673217485012</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.43998416921104</v>
+        <v>14.43998416921102</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.902960083475705</v>
+        <v>7.902960083475762</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03157566324053107</v>
+        <v>0.03157566324054528</v>
       </c>
       <c r="D16">
-        <v>0.02261734350706845</v>
+        <v>0.02261734350716615</v>
       </c>
       <c r="E16">
         <v>0.1880991982620799</v>
       </c>
       <c r="F16">
-        <v>2.119827044999866</v>
+        <v>2.119827044999838</v>
       </c>
       <c r="G16">
-        <v>1.587361114334755</v>
+        <v>1.58736111433474</v>
       </c>
       <c r="H16">
-        <v>1.59291928717137</v>
+        <v>1.592919287171355</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.4153758580658</v>
+        <v>13.41537585806583</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.328340639554654</v>
+        <v>7.328340639554625</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>0.02978395638607623</v>
       </c>
       <c r="D17">
-        <v>0.01967000230711591</v>
+        <v>0.01967000230721538</v>
       </c>
       <c r="E17">
-        <v>0.1788923194193437</v>
+        <v>0.1788923194193366</v>
       </c>
       <c r="F17">
         <v>1.985231884535992</v>
       </c>
       <c r="G17">
-        <v>1.48159159316441</v>
+        <v>1.481591593164381</v>
       </c>
       <c r="H17">
-        <v>1.490355621610817</v>
+        <v>1.490355621610803</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.7984536674941</v>
+        <v>12.79845366749413</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.983383511932914</v>
+        <v>6.983383511932885</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02878454140802233</v>
+        <v>0.02878454140835629</v>
       </c>
       <c r="D18">
-        <v>0.01809315040725679</v>
+        <v>0.0180931504070827</v>
       </c>
       <c r="E18">
-        <v>0.1737198413886105</v>
+        <v>0.1737198413886034</v>
       </c>
       <c r="F18">
-        <v>1.910531474185902</v>
+        <v>1.910531474185916</v>
       </c>
       <c r="G18">
-        <v>1.423077439110003</v>
+        <v>1.423077439110017</v>
       </c>
       <c r="H18">
-        <v>1.433481542689535</v>
+        <v>1.433481542689549</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1064,31 +1064,31 @@
         <v>0.0284511309083868</v>
       </c>
       <c r="D19">
-        <v>0.01757822497637918</v>
+        <v>0.0175782249763845</v>
       </c>
       <c r="E19">
-        <v>0.1719883079579958</v>
+        <v>0.17198830795801</v>
       </c>
       <c r="F19">
         <v>1.885676391758579</v>
       </c>
       <c r="G19">
-        <v>1.403639297247111</v>
+        <v>1.403639297247139</v>
       </c>
       <c r="H19">
-        <v>1.414565919684875</v>
+        <v>1.414565919684861</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.32911922493972</v>
+        <v>12.32911922493975</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.721459401496929</v>
+        <v>6.721459401496872</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02997137434500985</v>
+        <v>0.02997137434485353</v>
       </c>
       <c r="D20">
-        <v>0.0199711674110592</v>
+        <v>0.01997116741105742</v>
       </c>
       <c r="E20">
-        <v>0.1798593380896989</v>
+        <v>0.1798593380897202</v>
       </c>
       <c r="F20">
         <v>1.999271661893587</v>
       </c>
       <c r="G20">
-        <v>1.492604562788983</v>
+        <v>1.492604562788969</v>
       </c>
       <c r="H20">
         <v>1.501048963417261</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.86372546647041</v>
+        <v>12.86372546647038</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.019844767570163</v>
+        <v>7.019844767570135</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03548207891518729</v>
+        <v>0.03548207891490307</v>
       </c>
       <c r="D21">
-        <v>0.02953917596930467</v>
+        <v>0.02953917596950539</v>
       </c>
       <c r="E21">
-        <v>0.2078884458721859</v>
+        <v>0.2078884458721717</v>
       </c>
       <c r="F21">
-        <v>2.415788627484105</v>
+        <v>2.415788627484048</v>
       </c>
       <c r="G21">
-        <v>1.821325958174754</v>
+        <v>1.821325958174711</v>
       </c>
       <c r="H21">
-        <v>1.818809474426331</v>
+        <v>1.818809474426288</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.70857738295706</v>
+        <v>14.70857738295683</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.053948854965995</v>
+        <v>8.053948854965967</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03946354717412959</v>
+        <v>0.03946354717442802</v>
       </c>
       <c r="D22">
-        <v>0.03722367585306774</v>
+        <v>0.03722367585306063</v>
       </c>
       <c r="E22">
-        <v>0.2276771413416654</v>
+        <v>0.2276771413416725</v>
       </c>
       <c r="F22">
-        <v>2.720140920263987</v>
+        <v>2.720140920264015</v>
       </c>
       <c r="G22">
-        <v>2.063674383346054</v>
+        <v>2.063674383346068</v>
       </c>
       <c r="H22">
-        <v>2.051565147212273</v>
+        <v>2.051565147212287</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15.95979206146359</v>
+        <v>15.95979206146365</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.759313347894903</v>
+        <v>8.759313347894931</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,10 +1216,10 @@
         <v>0.0372978800696302</v>
       </c>
       <c r="D23">
-        <v>0.03296957846758541</v>
+        <v>0.03296957846759252</v>
       </c>
       <c r="E23">
-        <v>0.2169595298804055</v>
+        <v>0.2169595298803983</v>
       </c>
       <c r="F23">
         <v>2.554307336419242</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15.28715556643726</v>
+        <v>15.28715556643738</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.379706357609393</v>
+        <v>8.379706357609336</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02988654820133263</v>
+        <v>0.02988654820106262</v>
       </c>
       <c r="D24">
-        <v>0.01983464805915247</v>
+        <v>0.01983464805924662</v>
       </c>
       <c r="E24">
-        <v>0.1794217767748094</v>
+        <v>0.1794217767748059</v>
       </c>
       <c r="F24">
-        <v>1.99291600984877</v>
+        <v>1.992916009848742</v>
       </c>
       <c r="G24">
-        <v>1.487618521566674</v>
+        <v>1.487618521566645</v>
       </c>
       <c r="H24">
-        <v>1.496208052182482</v>
+        <v>1.496208052182467</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.83420497371446</v>
+        <v>12.83420497371449</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.003353375000614</v>
+        <v>7.003353375000643</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02305439075260551</v>
+        <v>0.02305439075249893</v>
       </c>
       <c r="D25">
-        <v>0.01009099640037547</v>
+        <v>0.01009099640048738</v>
       </c>
       <c r="E25">
-        <v>0.1435332384571772</v>
+        <v>0.1435332384571737</v>
       </c>
       <c r="F25">
         <v>1.488889004842335</v>
@@ -1304,19 +1304,19 @@
         <v>1.095719564397996</v>
       </c>
       <c r="H25">
-        <v>1.113211027915241</v>
+        <v>1.113211027915256</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.32869477121082</v>
+        <v>10.32869477121096</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.60991643538469</v>
+        <v>5.609916435384804</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01865055644770308</v>
+        <v>0.01865055644774571</v>
       </c>
       <c r="D2">
-        <v>0.005360380234410655</v>
+        <v>0.005360380234522566</v>
       </c>
       <c r="E2">
-        <v>0.1196974753852977</v>
+        <v>0.1196974753853119</v>
       </c>
       <c r="F2">
-        <v>1.175559482275673</v>
+        <v>1.175559482275702</v>
       </c>
       <c r="G2">
-        <v>0.8565213226379313</v>
+        <v>0.8565213226379456</v>
       </c>
       <c r="H2">
-        <v>0.8762459918550931</v>
+        <v>0.8762459918551002</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.559044077713168</v>
+        <v>8.559044077713111</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.63306931835092</v>
+        <v>4.633069318350948</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01592661624161806</v>
+        <v>0.01592661624163938</v>
       </c>
       <c r="D3">
-        <v>0.003203837818501754</v>
+        <v>0.003203837818604782</v>
       </c>
       <c r="E3">
-        <v>0.104676916991064</v>
+        <v>0.1046769169910888</v>
       </c>
       <c r="F3">
         <v>0.9886625615580016</v>
       </c>
       <c r="G3">
-        <v>0.7161440816862381</v>
+        <v>0.7161440816862452</v>
       </c>
       <c r="H3">
-        <v>0.7354748304077177</v>
+        <v>0.7354748304077248</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.389951570983811</v>
+        <v>7.389951570983754</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3.991068544838626</v>
+        <v>3.991068544838583</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01434988030640483</v>
+        <v>0.01434988030678142</v>
       </c>
       <c r="D4">
-        <v>0.002277887235151432</v>
+        <v>0.002277887235380582</v>
       </c>
       <c r="E4">
-        <v>0.09589160285201359</v>
+        <v>0.09589160285202425</v>
       </c>
       <c r="F4">
         <v>0.883729408447735</v>
       </c>
       <c r="G4">
-        <v>0.6383400738927634</v>
+        <v>0.6383400738927705</v>
       </c>
       <c r="H4">
         <v>0.6566884722606119</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.682701192345434</v>
+        <v>6.682701192345462</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.603998919933844</v>
+        <v>3.603998919933886</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01372736204229952</v>
+        <v>0.01372736204228886</v>
       </c>
       <c r="D5">
-        <v>0.001985778695422269</v>
+        <v>0.001985778695142493</v>
       </c>
       <c r="E5">
-        <v>0.09240639292028519</v>
+        <v>0.09240639292030295</v>
       </c>
       <c r="F5">
-        <v>0.8430923573773299</v>
+        <v>0.8430923573773015</v>
       </c>
       <c r="G5">
-        <v>0.6084487800258813</v>
+        <v>0.6084487800258671</v>
       </c>
       <c r="H5">
-        <v>0.6262358596747504</v>
+        <v>0.6262358596747575</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.396604837682389</v>
+        <v>6.396604837682332</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.447708586662529</v>
+        <v>3.4477085866625</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01362509490594022</v>
+        <v>0.01362509490583008</v>
       </c>
       <c r="D6">
-        <v>0.001942027897910314</v>
+        <v>0.001942027898159004</v>
       </c>
       <c r="E6">
-        <v>0.09183300832517816</v>
+        <v>0.09183300832518881</v>
       </c>
       <c r="F6">
-        <v>0.8364636619508303</v>
+        <v>0.8364636619508161</v>
       </c>
       <c r="G6">
-        <v>0.6035870787936233</v>
+        <v>0.603587078793602</v>
       </c>
       <c r="H6">
-        <v>0.6212718968440285</v>
+        <v>0.6212718968440214</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.349211871270938</v>
+        <v>6.349211871270967</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.421834635630475</v>
+        <v>3.421834635630532</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01434140869604761</v>
+        <v>0.01434140869607248</v>
       </c>
       <c r="D7">
-        <v>0.002273620760664841</v>
+        <v>0.002273620760671058</v>
       </c>
       <c r="E7">
-        <v>0.09584423423591559</v>
+        <v>0.09584423423593336</v>
       </c>
       <c r="F7">
-        <v>0.8831731858208514</v>
+        <v>0.8831731858208656</v>
       </c>
       <c r="G7">
-        <v>0.6379299631719064</v>
+        <v>0.6379299631718993</v>
       </c>
       <c r="H7">
-        <v>0.6562714126058822</v>
+        <v>0.656271412605868</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.678834905216348</v>
+        <v>6.678834905216377</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.60188571274513</v>
+        <v>3.601885712745101</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01768880555565033</v>
+        <v>0.01768880555565744</v>
       </c>
       <c r="D8">
-        <v>0.004524442888074631</v>
+        <v>0.004524442888143909</v>
       </c>
       <c r="E8">
         <v>0.1144177484148763</v>
       </c>
       <c r="F8">
-        <v>1.108854914063841</v>
+        <v>1.108854914063826</v>
       </c>
       <c r="G8">
-        <v>0.8061873297731665</v>
+        <v>0.8061873297731594</v>
       </c>
       <c r="H8">
-        <v>0.8259462374950104</v>
+        <v>0.8259462374950033</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.410004534118556</v>
+        <v>4.410004534118571</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02523782516615114</v>
+        <v>0.02523782516614403</v>
       </c>
       <c r="D9">
-        <v>0.01291830391626547</v>
+        <v>0.01291830391627258</v>
       </c>
       <c r="E9">
-        <v>0.155144118754297</v>
+        <v>0.1551441187542864</v>
       </c>
       <c r="F9">
-        <v>1.6480385810233</v>
+        <v>1.648038581023286</v>
       </c>
       <c r="G9">
-        <v>1.218646645350717</v>
+        <v>1.218646645350702</v>
       </c>
       <c r="H9">
         <v>1.233935017996501</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03178462770986101</v>
+        <v>0.0317846277099747</v>
       </c>
       <c r="D10">
-        <v>0.02297079760670329</v>
+        <v>0.02297079760701237</v>
       </c>
       <c r="E10">
-        <v>0.1891675412418792</v>
+        <v>0.1891675412418863</v>
       </c>
       <c r="F10">
-        <v>2.135576664500391</v>
+        <v>2.135576664500348</v>
       </c>
       <c r="G10">
-        <v>1.599764886563236</v>
+        <v>1.599764886563221</v>
       </c>
       <c r="H10">
-        <v>1.60492782821494</v>
+        <v>1.604927828214912</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.4863169472855</v>
+        <v>13.48631694728539</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -760,31 +760,31 @@
         <v>0.03510469857663168</v>
       </c>
       <c r="D11">
-        <v>0.02884255655346735</v>
+        <v>0.02884255655348866</v>
       </c>
       <c r="E11">
         <v>0.2059932327061205</v>
       </c>
       <c r="F11">
-        <v>2.387068146581825</v>
+        <v>2.387068146581811</v>
       </c>
       <c r="G11">
-        <v>1.798544109460437</v>
+        <v>1.798544109460423</v>
       </c>
       <c r="H11">
-        <v>1.7968684288074</v>
+        <v>1.796868428807386</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.58659375116014</v>
+        <v>14.58659375116019</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.985357616594399</v>
+        <v>7.985357616594456</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03642539052337668</v>
+        <v>0.03642539052339799</v>
       </c>
       <c r="D12">
-        <v>0.03130526266759048</v>
+        <v>0.03130526266759937</v>
       </c>
       <c r="E12">
-        <v>0.2126107187299269</v>
+        <v>0.2126107187299482</v>
       </c>
       <c r="F12">
         <v>2.487684202120647</v>
@@ -810,19 +810,19 @@
         <v>1.878424095418069</v>
       </c>
       <c r="H12">
-        <v>1.873752291363701</v>
+        <v>1.873752291363715</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.01085666930675</v>
+        <v>15.01085666930669</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.22405382682166</v>
+        <v>8.224053826821603</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,10 +836,10 @@
         <v>0.03613785987847251</v>
       </c>
       <c r="D13">
-        <v>0.03076322961384559</v>
+        <v>0.03076322961354983</v>
       </c>
       <c r="E13">
-        <v>0.2111735901131837</v>
+        <v>0.2111735901131979</v>
       </c>
       <c r="F13">
         <v>2.465754303332247</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.172406294514673</v>
+        <v>8.172406294514701</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03521198392301983</v>
+        <v>0.03521198392317615</v>
       </c>
       <c r="D14">
-        <v>0.02904001419232483</v>
+        <v>0.02904001419229019</v>
       </c>
       <c r="E14">
-        <v>0.2065323749488428</v>
+        <v>0.206532374948857</v>
       </c>
       <c r="F14">
-        <v>2.395230556700753</v>
+        <v>2.39523055670081</v>
       </c>
       <c r="G14">
-        <v>1.805017133195179</v>
+        <v>1.805017133195264</v>
       </c>
       <c r="H14">
-        <v>1.803103685760561</v>
+        <v>1.80310368576059</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.62133439880108</v>
+        <v>14.62133439880125</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.004889088911426</v>
+        <v>8.004889088911398</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03465361758554764</v>
+        <v>0.03465361758544105</v>
       </c>
       <c r="D15">
-        <v>0.0280174680994012</v>
+        <v>0.0280174680994083</v>
       </c>
       <c r="E15">
-        <v>0.2037233312842233</v>
+        <v>0.2037233312842304</v>
       </c>
       <c r="F15">
         <v>2.352771800635438</v>
       </c>
       <c r="G15">
-        <v>1.771360310034126</v>
+        <v>1.77136031003414</v>
       </c>
       <c r="H15">
-        <v>1.770673217485012</v>
+        <v>1.77067321748504</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.43998416921102</v>
+        <v>14.43998416921104</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.902960083475762</v>
+        <v>7.902960083475705</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03157566324054528</v>
+        <v>0.03157566324053107</v>
       </c>
       <c r="D16">
-        <v>0.02261734350716615</v>
+        <v>0.02261734350706845</v>
       </c>
       <c r="E16">
         <v>0.1880991982620799</v>
       </c>
       <c r="F16">
-        <v>2.119827044999838</v>
+        <v>2.119827044999866</v>
       </c>
       <c r="G16">
-        <v>1.58736111433474</v>
+        <v>1.587361114334755</v>
       </c>
       <c r="H16">
-        <v>1.592919287171355</v>
+        <v>1.59291928717137</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.41537585806583</v>
+        <v>13.4153758580658</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.328340639554625</v>
+        <v>7.328340639554654</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>0.02978395638607623</v>
       </c>
       <c r="D17">
-        <v>0.01967000230721538</v>
+        <v>0.01967000230711591</v>
       </c>
       <c r="E17">
-        <v>0.1788923194193366</v>
+        <v>0.1788923194193437</v>
       </c>
       <c r="F17">
         <v>1.985231884535992</v>
       </c>
       <c r="G17">
-        <v>1.481591593164381</v>
+        <v>1.48159159316441</v>
       </c>
       <c r="H17">
-        <v>1.490355621610803</v>
+        <v>1.490355621610817</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.79845366749413</v>
+        <v>12.7984536674941</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.983383511932885</v>
+        <v>6.983383511932914</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02878454140835629</v>
+        <v>0.02878454140802233</v>
       </c>
       <c r="D18">
-        <v>0.0180931504070827</v>
+        <v>0.01809315040725679</v>
       </c>
       <c r="E18">
-        <v>0.1737198413886034</v>
+        <v>0.1737198413886105</v>
       </c>
       <c r="F18">
-        <v>1.910531474185916</v>
+        <v>1.910531474185902</v>
       </c>
       <c r="G18">
-        <v>1.423077439110017</v>
+        <v>1.423077439110003</v>
       </c>
       <c r="H18">
-        <v>1.433481542689549</v>
+        <v>1.433481542689535</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1064,31 +1064,31 @@
         <v>0.0284511309083868</v>
       </c>
       <c r="D19">
-        <v>0.0175782249763845</v>
+        <v>0.01757822497637918</v>
       </c>
       <c r="E19">
-        <v>0.17198830795801</v>
+        <v>0.1719883079579958</v>
       </c>
       <c r="F19">
         <v>1.885676391758579</v>
       </c>
       <c r="G19">
-        <v>1.403639297247139</v>
+        <v>1.403639297247111</v>
       </c>
       <c r="H19">
-        <v>1.414565919684861</v>
+        <v>1.414565919684875</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.32911922493975</v>
+        <v>12.32911922493972</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.721459401496872</v>
+        <v>6.721459401496929</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02997137434485353</v>
+        <v>0.02997137434500985</v>
       </c>
       <c r="D20">
-        <v>0.01997116741105742</v>
+        <v>0.0199711674110592</v>
       </c>
       <c r="E20">
-        <v>0.1798593380897202</v>
+        <v>0.1798593380896989</v>
       </c>
       <c r="F20">
         <v>1.999271661893587</v>
       </c>
       <c r="G20">
-        <v>1.492604562788969</v>
+        <v>1.492604562788983</v>
       </c>
       <c r="H20">
         <v>1.501048963417261</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.86372546647038</v>
+        <v>12.86372546647041</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.019844767570135</v>
+        <v>7.019844767570163</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03548207891490307</v>
+        <v>0.03548207891518729</v>
       </c>
       <c r="D21">
-        <v>0.02953917596950539</v>
+        <v>0.02953917596930467</v>
       </c>
       <c r="E21">
-        <v>0.2078884458721717</v>
+        <v>0.2078884458721859</v>
       </c>
       <c r="F21">
-        <v>2.415788627484048</v>
+        <v>2.415788627484105</v>
       </c>
       <c r="G21">
-        <v>1.821325958174711</v>
+        <v>1.821325958174754</v>
       </c>
       <c r="H21">
-        <v>1.818809474426288</v>
+        <v>1.818809474426331</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.70857738295683</v>
+        <v>14.70857738295706</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.053948854965967</v>
+        <v>8.053948854965995</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03946354717442802</v>
+        <v>0.03946354717412959</v>
       </c>
       <c r="D22">
-        <v>0.03722367585306063</v>
+        <v>0.03722367585306774</v>
       </c>
       <c r="E22">
-        <v>0.2276771413416725</v>
+        <v>0.2276771413416654</v>
       </c>
       <c r="F22">
-        <v>2.720140920264015</v>
+        <v>2.720140920263987</v>
       </c>
       <c r="G22">
-        <v>2.063674383346068</v>
+        <v>2.063674383346054</v>
       </c>
       <c r="H22">
-        <v>2.051565147212287</v>
+        <v>2.051565147212273</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15.95979206146365</v>
+        <v>15.95979206146359</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.759313347894931</v>
+        <v>8.759313347894903</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,10 +1216,10 @@
         <v>0.0372978800696302</v>
       </c>
       <c r="D23">
-        <v>0.03296957846759252</v>
+        <v>0.03296957846758541</v>
       </c>
       <c r="E23">
-        <v>0.2169595298803983</v>
+        <v>0.2169595298804055</v>
       </c>
       <c r="F23">
         <v>2.554307336419242</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15.28715556643738</v>
+        <v>15.28715556643726</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.379706357609336</v>
+        <v>8.379706357609393</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02988654820106262</v>
+        <v>0.02988654820133263</v>
       </c>
       <c r="D24">
-        <v>0.01983464805924662</v>
+        <v>0.01983464805915247</v>
       </c>
       <c r="E24">
-        <v>0.1794217767748059</v>
+        <v>0.1794217767748094</v>
       </c>
       <c r="F24">
-        <v>1.992916009848742</v>
+        <v>1.99291600984877</v>
       </c>
       <c r="G24">
-        <v>1.487618521566645</v>
+        <v>1.487618521566674</v>
       </c>
       <c r="H24">
-        <v>1.496208052182467</v>
+        <v>1.496208052182482</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.83420497371449</v>
+        <v>12.83420497371446</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.003353375000643</v>
+        <v>7.003353375000614</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02305439075249893</v>
+        <v>0.02305439075260551</v>
       </c>
       <c r="D25">
-        <v>0.01009099640048738</v>
+        <v>0.01009099640037547</v>
       </c>
       <c r="E25">
-        <v>0.1435332384571737</v>
+        <v>0.1435332384571772</v>
       </c>
       <c r="F25">
         <v>1.488889004842335</v>
@@ -1304,19 +1304,19 @@
         <v>1.095719564397996</v>
       </c>
       <c r="H25">
-        <v>1.113211027915256</v>
+        <v>1.113211027915241</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.32869477121096</v>
+        <v>10.32869477121082</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.609916435384804</v>
+        <v>5.60991643538469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01865055644774571</v>
+        <v>0.01869391219347705</v>
       </c>
       <c r="D2">
-        <v>0.005360380234522566</v>
+        <v>0.005372865995276754</v>
       </c>
       <c r="E2">
-        <v>0.1196974753853119</v>
+        <v>0.1196959808082454</v>
       </c>
       <c r="F2">
-        <v>1.175559482275702</v>
+        <v>1.173909354014</v>
       </c>
       <c r="G2">
-        <v>0.8565213226379456</v>
+        <v>0.2977949314380766</v>
       </c>
       <c r="H2">
-        <v>0.8762459918551002</v>
+        <v>0.5610366014658865</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8749634761550951</v>
       </c>
       <c r="J2">
-        <v>8.559044077713111</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.558558792254701</v>
       </c>
       <c r="L2">
-        <v>4.633069318350948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.632801286431729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01592661624163938</v>
+        <v>0.01596591954412219</v>
       </c>
       <c r="D3">
-        <v>0.003203837818604782</v>
+        <v>0.003219537728963218</v>
       </c>
       <c r="E3">
-        <v>0.1046769169910888</v>
+        <v>0.1046725873315779</v>
       </c>
       <c r="F3">
-        <v>0.9886625615580016</v>
+        <v>0.9872881594922234</v>
       </c>
       <c r="G3">
-        <v>0.7161440816862452</v>
+        <v>0.2461567358335017</v>
       </c>
       <c r="H3">
-        <v>0.7354748304077248</v>
+        <v>0.4727020903178243</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7344075110069568</v>
       </c>
       <c r="J3">
-        <v>7.389951570983754</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.389614544188447</v>
       </c>
       <c r="L3">
-        <v>3.991068544838583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.990887341315258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01434988030678142</v>
+        <v>0.01438639898993088</v>
       </c>
       <c r="D4">
-        <v>0.002277887235380582</v>
+        <v>0.002294514589568308</v>
       </c>
       <c r="E4">
-        <v>0.09589160285202425</v>
+        <v>0.09588621619309023</v>
       </c>
       <c r="F4">
-        <v>0.883729408447735</v>
+        <v>0.8825083789164552</v>
       </c>
       <c r="G4">
-        <v>0.6383400738927705</v>
+        <v>0.2172100156211485</v>
       </c>
       <c r="H4">
-        <v>0.6566884722606119</v>
+        <v>0.4240727086730729</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.65574072749137</v>
       </c>
       <c r="J4">
-        <v>6.682701192345462</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.682440899380879</v>
       </c>
       <c r="L4">
-        <v>3.603998919933886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.603861861639459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01372736204228886</v>
+        <v>0.01376268206639253</v>
       </c>
       <c r="D5">
-        <v>0.001985778695142493</v>
+        <v>0.002002562009315589</v>
       </c>
       <c r="E5">
-        <v>0.09240639292030295</v>
+        <v>0.09240072951837064</v>
       </c>
       <c r="F5">
-        <v>0.8430923573773015</v>
+        <v>0.8419305215048354</v>
       </c>
       <c r="G5">
-        <v>0.6084487800258671</v>
+        <v>0.2060076972821463</v>
       </c>
       <c r="H5">
-        <v>0.6262358596747575</v>
+        <v>0.4054723321577143</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6253342340652068</v>
       </c>
       <c r="J5">
-        <v>6.396604837682332</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.396372914404338</v>
       </c>
       <c r="L5">
-        <v>3.4477085866625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.447587654254164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01362509490583008</v>
+        <v>0.01366021230965231</v>
       </c>
       <c r="D6">
-        <v>0.001942027898159004</v>
+        <v>0.001958824766536971</v>
       </c>
       <c r="E6">
-        <v>0.09183300832518881</v>
+        <v>0.09182730777819259</v>
       </c>
       <c r="F6">
-        <v>0.8364636619508161</v>
+        <v>0.8353114734475895</v>
       </c>
       <c r="G6">
-        <v>0.603587078793602</v>
+        <v>0.2041807471608905</v>
       </c>
       <c r="H6">
-        <v>0.6212718968440214</v>
+        <v>0.4024520575320096</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6203777859385937</v>
       </c>
       <c r="J6">
-        <v>6.349211871270967</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.348984501463917</v>
       </c>
       <c r="L6">
-        <v>3.421834635630532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.421716279668019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01434140869607248</v>
+        <v>0.01437791145995249</v>
       </c>
       <c r="D7">
-        <v>0.002273620760671058</v>
+        <v>0.002290251067996074</v>
       </c>
       <c r="E7">
-        <v>0.09584423423593336</v>
+        <v>0.09583884324373315</v>
       </c>
       <c r="F7">
-        <v>0.8831731858208656</v>
+        <v>0.8819529671550015</v>
       </c>
       <c r="G7">
-        <v>0.6379299631718993</v>
+        <v>0.2170566558157887</v>
       </c>
       <c r="H7">
-        <v>0.656271412605868</v>
+        <v>0.423817168891226</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6553242997236168</v>
       </c>
       <c r="J7">
-        <v>6.678834905216377</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.67857500577415</v>
       </c>
       <c r="L7">
-        <v>3.601885712745101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.601748878954197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01768880555565744</v>
+        <v>0.01773083257928221</v>
       </c>
       <c r="D8">
-        <v>0.004524442888143909</v>
+        <v>0.004538281191043936</v>
       </c>
       <c r="E8">
-        <v>0.1144177484148763</v>
+        <v>0.1144151230551032</v>
       </c>
       <c r="F8">
-        <v>1.108854914063826</v>
+        <v>1.107303624182848</v>
       </c>
       <c r="G8">
-        <v>0.8061873297731594</v>
+        <v>0.2793525150397258</v>
       </c>
       <c r="H8">
-        <v>0.8259462374950033</v>
+        <v>0.529289335515486</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8247408919954822</v>
       </c>
       <c r="J8">
-        <v>8.153392199362202</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.152961464760892</v>
       </c>
       <c r="L8">
-        <v>4.410004534118571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.409768638583301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02523782516614403</v>
+        <v>0.02528772166556337</v>
       </c>
       <c r="D9">
-        <v>0.01291830391627258</v>
+        <v>0.01291600555107486</v>
       </c>
       <c r="E9">
-        <v>0.1551441187542864</v>
+        <v>0.1551532423140713</v>
       </c>
       <c r="F9">
-        <v>1.648038581023286</v>
+        <v>1.6456713866027</v>
       </c>
       <c r="G9">
-        <v>1.218646645350702</v>
+        <v>0.42882614987343</v>
       </c>
       <c r="H9">
-        <v>1.233935017996501</v>
+        <v>0.7911033247054888</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.232091907510721</v>
       </c>
       <c r="J9">
-        <v>11.15842148566438</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.15750155026214</v>
       </c>
       <c r="L9">
-        <v>6.070010976100178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6.069482059570561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0317846277099747</v>
+        <v>0.03183734106684</v>
       </c>
       <c r="D10">
-        <v>0.02297079760701237</v>
+        <v>0.02294568244303719</v>
       </c>
       <c r="E10">
-        <v>0.1891675412418863</v>
+        <v>0.1891905335953439</v>
       </c>
       <c r="F10">
-        <v>2.135576664500348</v>
+        <v>2.13243188509027</v>
       </c>
       <c r="G10">
-        <v>1.599764886563221</v>
+        <v>0.5647280104913222</v>
       </c>
       <c r="H10">
-        <v>1.604927828214912</v>
+        <v>1.035237706351708</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.602475824545124</v>
       </c>
       <c r="J10">
-        <v>13.48631694728539</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.48486495705041</v>
       </c>
       <c r="L10">
-        <v>7.368056942286017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7.367202000609495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03510469857663168</v>
+        <v>0.03515765477565225</v>
       </c>
       <c r="D11">
-        <v>0.02884255655348866</v>
+        <v>0.02880316594632149</v>
       </c>
       <c r="E11">
-        <v>0.2059932327061205</v>
+        <v>0.2060239998292914</v>
       </c>
       <c r="F11">
-        <v>2.387068146581811</v>
+        <v>2.383504843388991</v>
       </c>
       <c r="G11">
-        <v>1.798544109460423</v>
+        <v>0.6350820188895767</v>
       </c>
       <c r="H11">
-        <v>1.796868428807386</v>
+        <v>1.163092287556012</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.794088409929969</v>
       </c>
       <c r="J11">
-        <v>14.58659375116019</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.58483486306545</v>
       </c>
       <c r="L11">
-        <v>7.985357616594456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>7.984312584435315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03642539052339799</v>
+        <v>0.03647823993816246</v>
       </c>
       <c r="D12">
-        <v>0.03130526266759937</v>
+        <v>0.03125971712843612</v>
       </c>
       <c r="E12">
-        <v>0.2126107187299482</v>
+        <v>0.2126446670467104</v>
       </c>
       <c r="F12">
-        <v>2.487684202120647</v>
+        <v>2.483949835548316</v>
       </c>
       <c r="G12">
-        <v>1.878424095418069</v>
+        <v>0.6632736045264096</v>
       </c>
       <c r="H12">
-        <v>1.873752291363715</v>
+        <v>1.214549621588219</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.870838156677181</v>
       </c>
       <c r="J12">
-        <v>15.01085666930669</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.00896876614649</v>
       </c>
       <c r="L12">
-        <v>8.224053826821603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>8.222928539668146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03613785987847251</v>
+        <v>0.03619074212433304</v>
       </c>
       <c r="D13">
-        <v>0.03076322961354983</v>
+        <v>0.03071904676356318</v>
       </c>
       <c r="E13">
-        <v>0.2111735901131979</v>
+        <v>0.2112068423922437</v>
       </c>
       <c r="F13">
-        <v>2.465754303332247</v>
+        <v>2.462057403304911</v>
       </c>
       <c r="G13">
-        <v>1.860997507609895</v>
+        <v>0.6571269594184628</v>
       </c>
       <c r="H13">
-        <v>1.856990685763193</v>
+        <v>1.203320182920294</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.854105927415915</v>
       </c>
       <c r="J13">
-        <v>14.91911406851415</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.91725459072916</v>
       </c>
       <c r="L13">
-        <v>8.172406294514701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8.171298705674587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03521198392317615</v>
+        <v>0.0352649356708028</v>
       </c>
       <c r="D14">
-        <v>0.02904001419229019</v>
+        <v>0.02900013356887499</v>
       </c>
       <c r="E14">
-        <v>0.206532374948857</v>
+        <v>0.2065633989051676</v>
       </c>
       <c r="F14">
-        <v>2.39523055670081</v>
+        <v>2.391653455244281</v>
       </c>
       <c r="G14">
-        <v>1.805017133195264</v>
+        <v>0.6373681133272413</v>
       </c>
       <c r="H14">
-        <v>1.80310368576059</v>
+        <v>1.167260533091834</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.800312849801216</v>
       </c>
       <c r="J14">
-        <v>14.62133439880125</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.61956517791521</v>
       </c>
       <c r="L14">
-        <v>8.004889088911398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8.003837636150735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03465361758544105</v>
+        <v>0.03470658423770345</v>
       </c>
       <c r="D15">
-        <v>0.0280174680994083</v>
+        <v>0.02798011833622027</v>
       </c>
       <c r="E15">
-        <v>0.2037233312842304</v>
+        <v>0.2037530219088026</v>
       </c>
       <c r="F15">
-        <v>2.352771800635438</v>
+        <v>2.349266323501212</v>
       </c>
       <c r="G15">
-        <v>1.77136031003414</v>
+        <v>0.6254782505882588</v>
       </c>
       <c r="H15">
-        <v>1.77067321748504</v>
+        <v>1.145590644760929</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.767938529236204</v>
       </c>
       <c r="J15">
-        <v>14.43998416921104</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.43826844012244</v>
       </c>
       <c r="L15">
-        <v>7.902960083475705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>7.901941855862532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03157566324053107</v>
+        <v>0.03162833600659809</v>
       </c>
       <c r="D16">
-        <v>0.02261734350706845</v>
+        <v>0.02259306825746243</v>
       </c>
       <c r="E16">
-        <v>0.1880991982620799</v>
+        <v>0.1881217143357929</v>
       </c>
       <c r="F16">
-        <v>2.119827044999866</v>
+        <v>2.11670806103038</v>
       </c>
       <c r="G16">
-        <v>1.587361114334755</v>
+        <v>0.5603275512004728</v>
       </c>
       <c r="H16">
-        <v>1.59291928717137</v>
+        <v>1.027269819323777</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.590487494760382</v>
       </c>
       <c r="J16">
-        <v>13.4153758580658</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.41394235146677</v>
       </c>
       <c r="L16">
-        <v>7.328340639554654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.327497105802308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02978395638607623</v>
+        <v>0.02983615300931319</v>
       </c>
       <c r="D17">
-        <v>0.01967000230711591</v>
+        <v>0.01965263572328801</v>
       </c>
       <c r="E17">
-        <v>0.1788923194193437</v>
+        <v>0.1789108291604293</v>
       </c>
       <c r="F17">
-        <v>1.985231884535992</v>
+        <v>1.98233143557249</v>
       </c>
       <c r="G17">
-        <v>1.48159159316441</v>
+        <v>0.5227486162003885</v>
       </c>
       <c r="H17">
-        <v>1.490355621610817</v>
+        <v>0.9593805953314529</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.488095026087862</v>
       </c>
       <c r="J17">
-        <v>12.7984536674941</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.79717459643848</v>
       </c>
       <c r="L17">
-        <v>6.983383511932914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>6.982635090128525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02878454140802233</v>
+        <v>0.02883637019484553</v>
       </c>
       <c r="D18">
-        <v>0.01809315040725679</v>
+        <v>0.01807940524729545</v>
       </c>
       <c r="E18">
-        <v>0.1737198413886105</v>
+        <v>0.1737361832255644</v>
       </c>
       <c r="F18">
-        <v>1.910531474185902</v>
+        <v>1.907750871467712</v>
       </c>
       <c r="G18">
-        <v>1.423077439110003</v>
+        <v>0.5019136042375862</v>
       </c>
       <c r="H18">
-        <v>1.433481542689535</v>
+        <v>0.9218676874479286</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.431314808725958</v>
       </c>
       <c r="J18">
-        <v>12.44738307064355</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.44618698918561</v>
       </c>
       <c r="L18">
-        <v>6.787418437917296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>6.786720964412211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0284511309083868</v>
+        <v>0.02850282024093787</v>
       </c>
       <c r="D19">
-        <v>0.01757822497637918</v>
+        <v>0.01756565017265466</v>
       </c>
       <c r="E19">
-        <v>0.1719883079579958</v>
+        <v>0.1720039383639289</v>
       </c>
       <c r="F19">
-        <v>1.885676391758579</v>
+        <v>1.882935443384326</v>
       </c>
       <c r="G19">
-        <v>1.403639297247111</v>
+        <v>0.4949846079466909</v>
       </c>
       <c r="H19">
-        <v>1.414565919684875</v>
+        <v>0.909413699527903</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.412430238313817</v>
       </c>
       <c r="J19">
-        <v>12.32911922493972</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.32795032541861</v>
       </c>
       <c r="L19">
-        <v>6.721459401496929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>6.720778588530266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02997137434500985</v>
+        <v>0.03002363168169353</v>
       </c>
       <c r="D20">
-        <v>0.0199711674110592</v>
+        <v>0.0199531030005442</v>
       </c>
       <c r="E20">
-        <v>0.1798593380896989</v>
+        <v>0.1798782599904172</v>
       </c>
       <c r="F20">
-        <v>1.999271661893587</v>
+        <v>1.996348574801885</v>
       </c>
       <c r="G20">
-        <v>1.492604562788983</v>
+        <v>0.5266662271192217</v>
       </c>
       <c r="H20">
-        <v>1.501048963417261</v>
+        <v>0.9664446313423412</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.49877063611018</v>
       </c>
       <c r="J20">
-        <v>12.86372546647041</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.86243058073563</v>
       </c>
       <c r="L20">
-        <v>7.019844767570163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7.019086623531678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03548207891518729</v>
+        <v>0.03553501613058785</v>
       </c>
       <c r="D21">
-        <v>0.02953917596930467</v>
+        <v>0.02949805387428306</v>
       </c>
       <c r="E21">
-        <v>0.2078884458721859</v>
+        <v>0.207920117720036</v>
       </c>
       <c r="F21">
-        <v>2.415788627484105</v>
+        <v>2.412176711858251</v>
       </c>
       <c r="G21">
-        <v>1.821325958174754</v>
+        <v>0.6431266647271201</v>
       </c>
       <c r="H21">
-        <v>1.818809474426331</v>
+        <v>1.177763701747821</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.815991345331341</v>
       </c>
       <c r="J21">
-        <v>14.70857738295706</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.70678203337627</v>
       </c>
       <c r="L21">
-        <v>8.053948854965995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8.052881160786626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03946354717412959</v>
+        <v>0.03951573172737</v>
       </c>
       <c r="D22">
-        <v>0.03722367585306774</v>
+        <v>0.03716297060324258</v>
       </c>
       <c r="E22">
-        <v>0.2276771413416654</v>
+        <v>0.2277185351804505</v>
       </c>
       <c r="F22">
-        <v>2.720140920263987</v>
+        <v>2.716002959044815</v>
       </c>
       <c r="G22">
-        <v>2.063674383346054</v>
+        <v>0.7284985428335347</v>
       </c>
       <c r="H22">
-        <v>2.051565147212273</v>
+        <v>1.334034543664231</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.048334497481463</v>
       </c>
       <c r="J22">
-        <v>15.95979206146359</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.95759227052469</v>
       </c>
       <c r="L22">
-        <v>8.759313347894903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>8.757993321163724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0372978800696302</v>
+        <v>0.03735059763156556</v>
       </c>
       <c r="D23">
-        <v>0.03296957846758541</v>
+        <v>0.03291982123614723</v>
       </c>
       <c r="E23">
-        <v>0.2169595298804055</v>
+        <v>0.2169956006749558</v>
       </c>
       <c r="F23">
-        <v>2.554307336419242</v>
+        <v>2.550458513120944</v>
       </c>
       <c r="G23">
-        <v>1.931420227824432</v>
+        <v>0.6819542701209542</v>
       </c>
       <c r="H23">
-        <v>1.924688423416725</v>
+        <v>1.248711160920394</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.921684539790505</v>
       </c>
       <c r="J23">
-        <v>15.28715556643726</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.2851802568166</v>
       </c>
       <c r="L23">
-        <v>8.379706357609393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>8.378526594535884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02988654820133263</v>
+        <v>0.02993877837860737</v>
       </c>
       <c r="D24">
-        <v>0.01983464805915247</v>
+        <v>0.01981690021455762</v>
       </c>
       <c r="E24">
-        <v>0.1794217767748094</v>
+        <v>0.1794405119185427</v>
       </c>
       <c r="F24">
-        <v>1.99291600984877</v>
+        <v>1.990003175269507</v>
       </c>
       <c r="G24">
-        <v>1.487618521566674</v>
+        <v>0.5248927011351441</v>
       </c>
       <c r="H24">
-        <v>1.496208052182482</v>
+        <v>0.9632462987094783</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.493937755444989</v>
       </c>
       <c r="J24">
-        <v>12.83420497371446</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.83291725561253</v>
       </c>
       <c r="L24">
-        <v>7.003353375000614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>7.002599637853962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02305439075260551</v>
+        <v>0.02310257537865823</v>
       </c>
       <c r="D25">
-        <v>0.01009099640037547</v>
+        <v>0.01009458979181233</v>
       </c>
       <c r="E25">
-        <v>0.1435332384571772</v>
+        <v>0.1435383714509832</v>
       </c>
       <c r="F25">
-        <v>1.488889004842335</v>
+        <v>1.486766967727462</v>
       </c>
       <c r="G25">
-        <v>1.095719564397996</v>
+        <v>0.3846122794129343</v>
       </c>
       <c r="H25">
-        <v>1.113211027915241</v>
+        <v>0.7127378141407377</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.111559701093853</v>
       </c>
       <c r="J25">
-        <v>10.32869477121082</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.32793039202724</v>
       </c>
       <c r="L25">
-        <v>5.60991643538469</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5.609481656246771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01869391219347705</v>
+        <v>0.1519484458953855</v>
       </c>
       <c r="D2">
-        <v>0.005372865995276754</v>
+        <v>0.07984569470801972</v>
       </c>
       <c r="E2">
-        <v>0.1196959808082454</v>
+        <v>0.04346055182683095</v>
       </c>
       <c r="F2">
-        <v>1.173909354014</v>
+        <v>2.170756000116015</v>
       </c>
       <c r="G2">
-        <v>0.2977949314380766</v>
+        <v>0.0007482626536203743</v>
       </c>
       <c r="H2">
-        <v>0.5610366014658865</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8749634761550951</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03247883636035453</v>
       </c>
       <c r="K2">
-        <v>8.558558792254701</v>
+        <v>7.860868889490405</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.632801286431729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.808884586698639</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.772078974944606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01596591954412219</v>
+        <v>0.1291652040480216</v>
       </c>
       <c r="D3">
-        <v>0.003219537728963218</v>
+        <v>0.06630009423597727</v>
       </c>
       <c r="E3">
-        <v>0.1046725873315779</v>
+        <v>0.04027934294533786</v>
       </c>
       <c r="F3">
-        <v>0.9872881594922234</v>
+        <v>1.924685119187046</v>
       </c>
       <c r="G3">
-        <v>0.2461567358335017</v>
+        <v>0.0007651658634482192</v>
       </c>
       <c r="H3">
-        <v>0.4727020903178243</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7344075110069568</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03373729307727658</v>
       </c>
       <c r="K3">
-        <v>7.389614544188447</v>
+        <v>6.765274936229218</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.990887341315258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.146578429934621</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.552870912201001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01438639898993088</v>
+        <v>0.1157006178369357</v>
       </c>
       <c r="D4">
-        <v>0.002294514589568308</v>
+        <v>0.05855819871204204</v>
       </c>
       <c r="E4">
-        <v>0.09588621619309023</v>
+        <v>0.03837800750640774</v>
       </c>
       <c r="F4">
-        <v>0.8825083789164552</v>
+        <v>1.792762957712284</v>
       </c>
       <c r="G4">
-        <v>0.2172100156211485</v>
+        <v>0.0007756140858824167</v>
       </c>
       <c r="H4">
-        <v>0.4240727086730729</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65574072749137</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.034697927670166</v>
       </c>
       <c r="K4">
-        <v>6.682440899380879</v>
+        <v>6.107773006592993</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.603861861639459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.749323980735284</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.434430389508265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01376268206639253</v>
+        <v>0.110321759245096</v>
       </c>
       <c r="D5">
-        <v>0.002002562009315589</v>
+        <v>0.0555202234521559</v>
       </c>
       <c r="E5">
-        <v>0.09240072951837064</v>
+        <v>0.03761386960370672</v>
       </c>
       <c r="F5">
-        <v>0.8419305215048354</v>
+        <v>1.743134312573261</v>
       </c>
       <c r="G5">
-        <v>0.2060076972821463</v>
+        <v>0.0007798995210002954</v>
       </c>
       <c r="H5">
-        <v>0.4054723321577143</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6253342340652068</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03513229960360675</v>
       </c>
       <c r="K5">
-        <v>6.396372914404338</v>
+        <v>5.842905346526891</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.447587654254164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.589346539825371</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.389633192634918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01366021230965231</v>
+        <v>0.1094345075183867</v>
       </c>
       <c r="D6">
-        <v>0.001958824766536971</v>
+        <v>0.05502211165772763</v>
       </c>
       <c r="E6">
-        <v>0.09182730777819259</v>
+        <v>0.03748756742129622</v>
       </c>
       <c r="F6">
-        <v>0.8353114734475895</v>
+        <v>1.735124995204359</v>
       </c>
       <c r="G6">
-        <v>0.2041807471608905</v>
+        <v>0.0007806130550335534</v>
       </c>
       <c r="H6">
-        <v>0.4024520575320096</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6203777859385937</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03520690384320702</v>
       </c>
       <c r="K6">
-        <v>6.348984501463917</v>
+        <v>5.799089963604985</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.421716279668019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.562885577408721</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.382388615294332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01437791145995249</v>
+        <v>0.1156276677528751</v>
       </c>
       <c r="D7">
-        <v>0.002290251067996074</v>
+        <v>0.05851678725620246</v>
       </c>
       <c r="E7">
-        <v>0.09583884324373315</v>
+        <v>0.03836766172780059</v>
       </c>
       <c r="F7">
-        <v>0.8819529671550015</v>
+        <v>1.792077750943051</v>
       </c>
       <c r="G7">
-        <v>0.2170566558157887</v>
+        <v>0.0007756717561967094</v>
       </c>
       <c r="H7">
-        <v>0.423817168891226</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6553242997236168</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03470361728865967</v>
       </c>
       <c r="K7">
-        <v>6.67857500577415</v>
+        <v>6.104189385451718</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.601748878954197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.747159299513172</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.433812909045528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01773083257928221</v>
+        <v>0.1439682977710532</v>
       </c>
       <c r="D8">
-        <v>0.004538281191043936</v>
+        <v>0.07503744693917014</v>
       </c>
       <c r="E8">
-        <v>0.1144151230551032</v>
+        <v>0.04235131340250931</v>
       </c>
       <c r="F8">
-        <v>1.107303624182848</v>
+        <v>2.081479194403357</v>
       </c>
       <c r="G8">
-        <v>0.2793525150397258</v>
+        <v>0.0007540831381486527</v>
       </c>
       <c r="H8">
-        <v>0.529289335515486</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8247408919954822</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.032870892031994</v>
       </c>
       <c r="K8">
-        <v>8.152961464760892</v>
+        <v>7.479460212311324</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.409768638583301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.578268965002351</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.69275208932855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02528772166556337</v>
+        <v>0.2050484405851449</v>
       </c>
       <c r="D9">
-        <v>0.01291600555107486</v>
+        <v>0.1135929907676001</v>
       </c>
       <c r="E9">
-        <v>0.1551532423140713</v>
+        <v>0.05071185121379429</v>
       </c>
       <c r="F9">
-        <v>1.6456713866027</v>
+        <v>2.840137812717188</v>
       </c>
       <c r="G9">
-        <v>0.42882614987343</v>
+        <v>0.0007117255324650915</v>
       </c>
       <c r="H9">
-        <v>0.7911033247054888</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.232091907510721</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03101140292568161</v>
       </c>
       <c r="K9">
-        <v>11.15750155026214</v>
+        <v>10.33924427505909</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.069482059570561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.308440391185314</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.362417340224283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03183734106684</v>
+        <v>0.2557661447314956</v>
       </c>
       <c r="D10">
-        <v>0.02294568244303719</v>
+        <v>0.1487037583425419</v>
       </c>
       <c r="E10">
-        <v>0.1891905335953439</v>
+        <v>0.05744499368458378</v>
       </c>
       <c r="F10">
-        <v>2.13243188509027</v>
+        <v>3.586937370327377</v>
       </c>
       <c r="G10">
-        <v>0.5647280104913222</v>
+        <v>0.0006795305929997368</v>
       </c>
       <c r="H10">
-        <v>1.035237706351708</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.602475824545124</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03114556025753146</v>
       </c>
       <c r="K10">
-        <v>13.48486495705041</v>
+        <v>12.61736686431897</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.367202000609495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.68808604974825</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.016081841897076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03515765477565225</v>
+        <v>0.2809364551297904</v>
       </c>
       <c r="D11">
-        <v>0.02880316594632149</v>
+        <v>0.1671950831263942</v>
       </c>
       <c r="E11">
-        <v>0.2060239998292914</v>
+        <v>0.06072323537566859</v>
       </c>
       <c r="F11">
-        <v>2.383504843388991</v>
+        <v>3.992390896050495</v>
       </c>
       <c r="G11">
-        <v>0.6350820188895767</v>
+        <v>0.000664297898575084</v>
       </c>
       <c r="H11">
-        <v>1.163092287556012</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.794088409929969</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03167626325176087</v>
       </c>
       <c r="K11">
-        <v>14.58483486306545</v>
+        <v>13.7177790698419</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.984312584435315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.35484063991359</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.369828637568489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03647823993816246</v>
+        <v>0.2908725009864668</v>
       </c>
       <c r="D12">
-        <v>0.03125971712843612</v>
+        <v>0.1746931861012158</v>
       </c>
       <c r="E12">
-        <v>0.2126446670467104</v>
+        <v>0.06200653604107842</v>
       </c>
       <c r="F12">
-        <v>2.483949835548316</v>
+        <v>4.158462390788344</v>
       </c>
       <c r="G12">
-        <v>0.6632736045264096</v>
+        <v>0.0006584014726612711</v>
       </c>
       <c r="H12">
-        <v>1.214549621588219</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.870838156677181</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03196216948917652</v>
       </c>
       <c r="K12">
-        <v>15.00896876614649</v>
+        <v>14.14683056904329</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.222928539668146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8.614859786406299</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.514565242322547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03619074212433304</v>
+        <v>0.28871252316452</v>
       </c>
       <c r="D13">
-        <v>0.03071904676356318</v>
+        <v>0.1730535417595718</v>
       </c>
       <c r="E13">
-        <v>0.2112068423922437</v>
+        <v>0.06172806748535464</v>
       </c>
       <c r="F13">
-        <v>2.462057403304911</v>
+        <v>4.122075798969036</v>
       </c>
       <c r="G13">
-        <v>0.6571269594184628</v>
+        <v>0.000659677955956608</v>
       </c>
       <c r="H13">
-        <v>1.203320182920294</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.854105927415915</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03189647115313932</v>
       </c>
       <c r="K13">
-        <v>14.91725459072916</v>
+        <v>14.05381448090748</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.171298705674587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.558486726663659</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.4828598639983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0352649356708028</v>
+        <v>0.2817450580403005</v>
       </c>
       <c r="D14">
-        <v>0.02900013356887499</v>
+        <v>0.1678010537787955</v>
       </c>
       <c r="E14">
-        <v>0.2065633989051676</v>
+        <v>0.06082789487054185</v>
       </c>
       <c r="F14">
-        <v>2.391653455244281</v>
+        <v>4.005780400797448</v>
       </c>
       <c r="G14">
-        <v>0.6373681133272413</v>
+        <v>0.0006638156757342545</v>
       </c>
       <c r="H14">
-        <v>1.167260533091834</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.800312849801216</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03169796053302676</v>
       </c>
       <c r="K14">
-        <v>14.61956517791521</v>
+        <v>13.75280768997803</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.003837636150735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.37606809795227</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.381501009757429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03470658423770345</v>
+        <v>0.2775337011504888</v>
       </c>
       <c r="D15">
-        <v>0.02798011833622027</v>
+        <v>0.164653228923072</v>
       </c>
       <c r="E15">
-        <v>0.2037530219088026</v>
+        <v>0.0602823695840442</v>
       </c>
       <c r="F15">
-        <v>2.349266323501212</v>
+        <v>3.936290748375001</v>
       </c>
       <c r="G15">
-        <v>0.6254782505882588</v>
+        <v>0.0006663318772606406</v>
       </c>
       <c r="H15">
-        <v>1.145590644760929</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.767938529236204</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0315880504032684</v>
       </c>
       <c r="K15">
-        <v>14.43826844012244</v>
+        <v>13.57015355621519</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.901941855862532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.265381146342861</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.320916986124985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03162833600659809</v>
+        <v>0.2541713807456887</v>
       </c>
       <c r="D16">
-        <v>0.02259306825746243</v>
+        <v>0.1475562489694227</v>
       </c>
       <c r="E16">
-        <v>0.1881217143357929</v>
+        <v>0.05723592724223181</v>
       </c>
       <c r="F16">
-        <v>2.11670806103038</v>
+        <v>3.562000390970809</v>
       </c>
       <c r="G16">
-        <v>0.5603275512004728</v>
+        <v>0.0006805108937167753</v>
       </c>
       <c r="H16">
-        <v>1.027269819323777</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.590487494760382</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03112168423330886</v>
       </c>
       <c r="K16">
-        <v>13.41394235146677</v>
+        <v>12.54698480254933</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.327497105802308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.645447451664865</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.994304279336873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02983615300931319</v>
+        <v>0.2404389230859891</v>
       </c>
       <c r="D17">
-        <v>0.01965263572328801</v>
+        <v>0.1377927387082778</v>
       </c>
       <c r="E17">
-        <v>0.1789108291604293</v>
+        <v>0.0554287370558626</v>
       </c>
       <c r="F17">
-        <v>1.98233143557249</v>
+        <v>3.351074539479185</v>
       </c>
       <c r="G17">
-        <v>0.5227486162003885</v>
+        <v>0.0006890325086361671</v>
       </c>
       <c r="H17">
-        <v>0.9593805953314529</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.488095026087862</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03096651964170505</v>
       </c>
       <c r="K17">
-        <v>12.79717459643848</v>
+        <v>11.93761853623312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.982635090128525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.276320356530277</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.809986670849383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02883637019484553</v>
+        <v>0.2327300554547946</v>
       </c>
       <c r="D18">
-        <v>0.01807940524729545</v>
+        <v>0.1324038346331804</v>
       </c>
       <c r="E18">
-        <v>0.1737361832255644</v>
+        <v>0.05440871362877253</v>
       </c>
       <c r="F18">
-        <v>1.907750871467712</v>
+        <v>3.235706171857629</v>
       </c>
       <c r="G18">
-        <v>0.5019136042375862</v>
+        <v>0.0006938819959929621</v>
       </c>
       <c r="H18">
-        <v>0.9218676874479286</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.431314808725958</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03092016866484926</v>
       </c>
       <c r="K18">
-        <v>12.44618698918561</v>
+        <v>11.59292088079306</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.786720964412211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.067548289703552</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.709075058613635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02850282024093787</v>
+        <v>0.2301499884310516</v>
       </c>
       <c r="D19">
-        <v>0.01756565017265466</v>
+        <v>0.1306149301887132</v>
       </c>
       <c r="E19">
-        <v>0.1720039383639289</v>
+        <v>0.05406641798341028</v>
       </c>
       <c r="F19">
-        <v>1.882935443384326</v>
+        <v>3.197590236021313</v>
       </c>
       <c r="G19">
-        <v>0.4949846079466909</v>
+        <v>0.0006955161179079807</v>
       </c>
       <c r="H19">
-        <v>0.909413699527903</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.412430238313817</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0309114029733415</v>
       </c>
       <c r="K19">
-        <v>12.32795032541861</v>
+        <v>11.47712889958524</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.720778588530266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.997422041049845</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.675718579407743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03002363168169353</v>
+        <v>0.2418805084835469</v>
       </c>
       <c r="D20">
-        <v>0.0199531030005442</v>
+        <v>0.1388078028678734</v>
       </c>
       <c r="E20">
-        <v>0.1798782599904172</v>
+        <v>0.05561903893634579</v>
       </c>
       <c r="F20">
-        <v>1.996348574801885</v>
+        <v>3.372893367135106</v>
       </c>
       <c r="G20">
-        <v>0.5266662271192217</v>
+        <v>0.0006881310084013442</v>
       </c>
       <c r="H20">
-        <v>0.9664446313423412</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.49877063611018</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0309784900188852</v>
       </c>
       <c r="K20">
-        <v>12.86243058073563</v>
+        <v>12.00186777114294</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.019086623531678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.315236500783271</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.829063239504492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03553501613058785</v>
+        <v>0.2837795707423396</v>
       </c>
       <c r="D21">
-        <v>0.02949805387428306</v>
+        <v>0.1693290360488362</v>
       </c>
       <c r="E21">
-        <v>0.207920117720036</v>
+        <v>0.06109105071073984</v>
       </c>
       <c r="F21">
-        <v>2.412176711858251</v>
+        <v>4.03956825236358</v>
       </c>
       <c r="G21">
-        <v>0.6431266647271201</v>
+        <v>0.0006626042384242273</v>
       </c>
       <c r="H21">
-        <v>1.177763701747821</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.815991345331341</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03175379275550227</v>
       </c>
       <c r="K21">
-        <v>14.70678203337627</v>
+        <v>13.84085461497065</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.052881160786626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.429425635831336</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.410953343499273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03951573172737</v>
+        <v>0.3136027275628663</v>
       </c>
       <c r="D22">
-        <v>0.03716297060324258</v>
+        <v>0.1922757283647627</v>
       </c>
       <c r="E22">
-        <v>0.2277185351804505</v>
+        <v>0.06492039949249673</v>
       </c>
       <c r="F22">
-        <v>2.716002959044815</v>
+        <v>4.55080922776321</v>
       </c>
       <c r="G22">
-        <v>0.7284985428335347</v>
+        <v>0.0006451395309380895</v>
       </c>
       <c r="H22">
-        <v>1.334034543664231</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.048334497481463</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03276885791240858</v>
       </c>
       <c r="K22">
-        <v>15.95759227052469</v>
+        <v>15.11716756965143</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.757993321163724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.203010453402698</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.856228842326075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03735059763156556</v>
+        <v>0.2974166513574374</v>
       </c>
       <c r="D23">
-        <v>0.03291982123614723</v>
+        <v>0.1796937307924864</v>
       </c>
       <c r="E23">
-        <v>0.2169956006749558</v>
+        <v>0.062848529599286</v>
       </c>
       <c r="F23">
-        <v>2.550458513120944</v>
+        <v>4.26966133562172</v>
       </c>
       <c r="G23">
-        <v>0.6819542701209542</v>
+        <v>0.0006545516967437824</v>
       </c>
       <c r="H23">
-        <v>1.248711160920394</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.921684539790505</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03217302917393283</v>
       </c>
       <c r="K23">
-        <v>15.2851802568166</v>
+        <v>14.42778459849822</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.378526594535884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8.785141427724483</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.611436542233051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02993877837860737</v>
+        <v>0.2412281952076683</v>
       </c>
       <c r="D24">
-        <v>0.01981690021455762</v>
+        <v>0.1383482030531411</v>
       </c>
       <c r="E24">
-        <v>0.1794405119185427</v>
+        <v>0.05553294517642193</v>
       </c>
       <c r="F24">
-        <v>1.990003175269507</v>
+        <v>3.363010925494223</v>
       </c>
       <c r="G24">
-        <v>0.5248927011351441</v>
+        <v>0.0006885387283941276</v>
       </c>
       <c r="H24">
-        <v>0.9632462987094783</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.493937755444989</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03097294594799394</v>
       </c>
       <c r="K24">
-        <v>12.83291725561253</v>
+        <v>11.97280335871682</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.002599637853962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.29763191761603</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.820423163020493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02310257537865823</v>
+        <v>0.1877183668562736</v>
       </c>
       <c r="D25">
-        <v>0.01009458979181233</v>
+        <v>0.1022430090077933</v>
       </c>
       <c r="E25">
-        <v>0.1435383714509832</v>
+        <v>0.0483691764223888</v>
       </c>
       <c r="F25">
-        <v>1.486766967727462</v>
+        <v>2.608109308327698</v>
       </c>
       <c r="G25">
-        <v>0.3846122794129343</v>
+        <v>0.0007232795079284319</v>
       </c>
       <c r="H25">
-        <v>0.7127378141407377</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.111559701093853</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03128973453842221</v>
       </c>
       <c r="K25">
-        <v>10.32793039202724</v>
+        <v>9.541339835873202</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.609481656246771</v>
+        <v>5.82548765566429</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.158460754889333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1519484458953855</v>
+        <v>0.01855384203071964</v>
       </c>
       <c r="D2">
-        <v>0.07984569470801972</v>
+        <v>0.02929201391735603</v>
       </c>
       <c r="E2">
-        <v>0.04346055182683095</v>
+        <v>0.15832469132868</v>
       </c>
       <c r="F2">
-        <v>2.170756000116015</v>
+        <v>0.309754627292925</v>
       </c>
       <c r="G2">
-        <v>0.0007482626536203743</v>
+        <v>0.000759783480239018</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2336694537848345</v>
       </c>
       <c r="J2">
-        <v>0.03247883636035453</v>
+        <v>0.3769786494005416</v>
       </c>
       <c r="K2">
-        <v>7.860868889490405</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4414976076105148</v>
       </c>
       <c r="M2">
-        <v>4.808884586698639</v>
+        <v>32.74377756077473</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.772078974944606</v>
+        <v>1.216085677929357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1291652040480216</v>
+        <v>0.01913946777162678</v>
       </c>
       <c r="D3">
-        <v>0.06630009423597727</v>
+        <v>0.0283440856639956</v>
       </c>
       <c r="E3">
-        <v>0.04027934294533786</v>
+        <v>0.1359365061179538</v>
       </c>
       <c r="F3">
-        <v>1.924685119187046</v>
+        <v>0.2907658822432069</v>
       </c>
       <c r="G3">
-        <v>0.0007651658634482192</v>
+        <v>0.0007704506700094077</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2171758963285129</v>
       </c>
       <c r="J3">
-        <v>0.03373729307727658</v>
+        <v>0.3192713139660697</v>
       </c>
       <c r="K3">
-        <v>6.765274936229218</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.376405642865322</v>
       </c>
       <c r="M3">
-        <v>4.146578429934621</v>
+        <v>28.04681627352687</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.552870912201001</v>
+        <v>1.104593536281413</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1157006178369357</v>
+        <v>0.01993363661179259</v>
       </c>
       <c r="D4">
-        <v>0.05855819871204204</v>
+        <v>0.02794876765986132</v>
       </c>
       <c r="E4">
-        <v>0.03837800750640774</v>
+        <v>0.1234187254906942</v>
       </c>
       <c r="F4">
-        <v>1.792762957712284</v>
+        <v>0.2880036644460446</v>
       </c>
       <c r="G4">
-        <v>0.0007756140858824167</v>
+        <v>0.0007769683402919481</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2135315872566039</v>
       </c>
       <c r="J4">
-        <v>0.034697927670166</v>
+        <v>0.2867050587618252</v>
       </c>
       <c r="K4">
-        <v>6.107773006592993</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3392323070721375</v>
       </c>
       <c r="M4">
-        <v>3.749323980735284</v>
+        <v>25.2595014301632</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.434430389508265</v>
+        <v>1.06174753503285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.110321759245096</v>
+        <v>0.02034881861315796</v>
       </c>
       <c r="D5">
-        <v>0.0555202234521559</v>
+        <v>0.02782700107320935</v>
       </c>
       <c r="E5">
-        <v>0.03761386960370672</v>
+        <v>0.1185650144549157</v>
       </c>
       <c r="F5">
-        <v>1.743134312573261</v>
+        <v>0.2887784893535965</v>
       </c>
       <c r="G5">
-        <v>0.0007798995210002954</v>
+        <v>0.00077962573483481</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2134304016105588</v>
       </c>
       <c r="J5">
-        <v>0.03513229960360675</v>
+        <v>0.2740076518522443</v>
       </c>
       <c r="K5">
-        <v>5.842905346526891</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3246409811760884</v>
       </c>
       <c r="M5">
-        <v>3.589346539825371</v>
+        <v>24.14225222962665</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.389633192634918</v>
+        <v>1.049754474108084</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1094345075183867</v>
+        <v>0.02042284499474789</v>
       </c>
       <c r="D6">
-        <v>0.05502211165772763</v>
+        <v>0.0278089679769451</v>
       </c>
       <c r="E6">
-        <v>0.03748756742129622</v>
+        <v>0.1177724598906096</v>
       </c>
       <c r="F6">
-        <v>1.735124995204359</v>
+        <v>0.2890133299234989</v>
       </c>
       <c r="G6">
-        <v>0.0007806130550335534</v>
+        <v>0.0007800673169442756</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2134908930901709</v>
       </c>
       <c r="J6">
-        <v>0.03520690384320702</v>
+        <v>0.271930214498397</v>
       </c>
       <c r="K6">
-        <v>5.799089963604985</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.322248112158789</v>
       </c>
       <c r="M6">
-        <v>3.562885577408721</v>
+        <v>23.95771426220847</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.382388615294332</v>
+        <v>1.048068333159847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1156276677528751</v>
+        <v>0.01993888573555935</v>
       </c>
       <c r="D7">
-        <v>0.05851678725620246</v>
+        <v>0.02794697499399845</v>
       </c>
       <c r="E7">
-        <v>0.03836766172780059</v>
+        <v>0.1233523362694662</v>
       </c>
       <c r="F7">
-        <v>1.792077750943051</v>
+        <v>0.2880068157509683</v>
       </c>
       <c r="G7">
-        <v>0.0007756717561967094</v>
+        <v>0.0007770041620779322</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2135249093394584</v>
       </c>
       <c r="J7">
-        <v>0.03470361728865967</v>
+        <v>0.2865316650954384</v>
       </c>
       <c r="K7">
-        <v>6.104189385451718</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3390334359223743</v>
       </c>
       <c r="M7">
-        <v>3.747159299513172</v>
+        <v>25.24436511048265</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.433812909045528</v>
+        <v>1.061564804342225</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1439682977710532</v>
+        <v>0.0186534828976761</v>
       </c>
       <c r="D8">
-        <v>0.07503744693917014</v>
+        <v>0.0289211893115251</v>
       </c>
       <c r="E8">
-        <v>0.04235131340250931</v>
+        <v>0.150308284951123</v>
       </c>
       <c r="F8">
-        <v>2.081479194403357</v>
+        <v>0.3011347059269127</v>
       </c>
       <c r="G8">
-        <v>0.0007540831381486527</v>
+        <v>0.000763474543144227</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2264717065003197</v>
       </c>
       <c r="J8">
-        <v>0.032870892031994</v>
+        <v>0.3563860863515202</v>
       </c>
       <c r="K8">
-        <v>7.479460212311324</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4183751481726716</v>
       </c>
       <c r="M8">
-        <v>4.578268965002351</v>
+        <v>31.10034054599458</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.69275208932855</v>
+        <v>1.171675576026615</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2050484405851449</v>
+        <v>0.02069500108778755</v>
       </c>
       <c r="D9">
-        <v>0.1135929907676001</v>
+        <v>0.03280011267028726</v>
       </c>
       <c r="E9">
-        <v>0.05071185121379429</v>
+        <v>0.2167805416021267</v>
       </c>
       <c r="F9">
-        <v>2.840137812717188</v>
+        <v>0.4177602162986318</v>
       </c>
       <c r="G9">
-        <v>0.0007117255324650915</v>
+        <v>0.0007361129424431696</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.31812715607456</v>
       </c>
       <c r="J9">
-        <v>0.03101140292568161</v>
+        <v>0.525322318767806</v>
       </c>
       <c r="K9">
-        <v>10.33924427505909</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6052356306180684</v>
       </c>
       <c r="M9">
-        <v>6.308440391185314</v>
+        <v>43.70430938204606</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.362417340224283</v>
+        <v>1.649189430751647</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2557661447314956</v>
+        <v>0.02741202059535652</v>
       </c>
       <c r="D10">
-        <v>0.1487037583425419</v>
+        <v>0.03793644455870293</v>
       </c>
       <c r="E10">
-        <v>0.05744499368458378</v>
+        <v>0.2823265870583143</v>
       </c>
       <c r="F10">
-        <v>3.586937370327377</v>
+        <v>0.6009526028948216</v>
       </c>
       <c r="G10">
-        <v>0.0006795305929997368</v>
+        <v>0.0007142941164026695</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4566168504449735</v>
       </c>
       <c r="J10">
-        <v>0.03114556025753146</v>
+        <v>0.6889036421970047</v>
       </c>
       <c r="K10">
-        <v>12.61736686431897</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7813797306296664</v>
       </c>
       <c r="M10">
-        <v>7.68808604974825</v>
+        <v>54.40566356736053</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.016081841897076</v>
+        <v>2.279969998138739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2809364551297904</v>
+        <v>0.03265166590446</v>
       </c>
       <c r="D11">
-        <v>0.1671950831263942</v>
+        <v>0.04124905210311169</v>
       </c>
       <c r="E11">
-        <v>0.06072323537566859</v>
+        <v>0.3193782004584449</v>
       </c>
       <c r="F11">
-        <v>3.992390896050495</v>
+        <v>0.722537639885644</v>
       </c>
       <c r="G11">
-        <v>0.000664297898575084</v>
+        <v>0.0007034978822181694</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5475283047246506</v>
       </c>
       <c r="J11">
-        <v>0.03167626325176087</v>
+        <v>0.7804207305174913</v>
       </c>
       <c r="K11">
-        <v>13.7177790698419</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8784128394002977</v>
       </c>
       <c r="M11">
-        <v>8.35484063991359</v>
+        <v>59.90566050788186</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.369828637568489</v>
+        <v>2.676230535810646</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2908725009864668</v>
+        <v>0.0351205861306525</v>
       </c>
       <c r="D12">
-        <v>0.1746931861012158</v>
+        <v>0.04272301509097787</v>
       </c>
       <c r="E12">
-        <v>0.06200653604107842</v>
+        <v>0.335031424302862</v>
       </c>
       <c r="F12">
-        <v>4.158462390788344</v>
+        <v>0.7767249570789261</v>
       </c>
       <c r="G12">
-        <v>0.0006584014726612711</v>
+        <v>0.0006992064078919482</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5878973162363437</v>
       </c>
       <c r="J12">
-        <v>0.03196216948917652</v>
+        <v>0.8189091926974044</v>
       </c>
       <c r="K12">
-        <v>14.14683056904329</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9189524316600881</v>
       </c>
       <c r="M12">
-        <v>8.614859786406299</v>
+        <v>62.12999420140483</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.514565242322547</v>
+        <v>2.849480259521101</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.28871252316452</v>
+        <v>0.03456316515772073</v>
       </c>
       <c r="D13">
-        <v>0.1730535417595718</v>
+        <v>0.04239387138573392</v>
       </c>
       <c r="E13">
-        <v>0.06172806748535464</v>
+        <v>0.3315739920812817</v>
       </c>
       <c r="F13">
-        <v>4.122075798969036</v>
+        <v>0.7646299515920916</v>
       </c>
       <c r="G13">
-        <v>0.000659677955956608</v>
+        <v>0.0007001415458703392</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5788932474313597</v>
       </c>
       <c r="J13">
-        <v>0.03189647115313932</v>
+        <v>0.8104164195930679</v>
       </c>
       <c r="K13">
-        <v>14.05381448090748</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9100197793165705</v>
       </c>
       <c r="M13">
-        <v>8.558486726663659</v>
+        <v>61.64342893661149</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.4828598639983</v>
+        <v>2.810960115411746</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2817450580403005</v>
+        <v>0.03284363864019468</v>
       </c>
       <c r="D14">
-        <v>0.1678010537787955</v>
+        <v>0.04136524658286334</v>
       </c>
       <c r="E14">
-        <v>0.06082789487054185</v>
+        <v>0.3206286114755841</v>
       </c>
       <c r="F14">
-        <v>4.005780400797448</v>
+        <v>0.7268107212187402</v>
       </c>
       <c r="G14">
-        <v>0.0006638156757342545</v>
+        <v>0.0007031495354036243</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5507145728976752</v>
       </c>
       <c r="J14">
-        <v>0.03169796053302676</v>
+        <v>0.7834989111842816</v>
       </c>
       <c r="K14">
-        <v>13.75280768997803</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8816605904028165</v>
       </c>
       <c r="M14">
-        <v>8.37606809795227</v>
+        <v>60.08539807180887</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.381501009757429</v>
+        <v>2.689957915587144</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2775337011504888</v>
+        <v>0.03186066141427091</v>
       </c>
       <c r="D15">
-        <v>0.164653228923072</v>
+        <v>0.04076711687044821</v>
       </c>
       <c r="E15">
-        <v>0.0602823695840442</v>
+        <v>0.3141598942887924</v>
       </c>
       <c r="F15">
-        <v>3.936290748375001</v>
+        <v>0.7048147602946173</v>
       </c>
       <c r="G15">
-        <v>0.0006663318772606406</v>
+        <v>0.0007049623370690905</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5343074218470321</v>
       </c>
       <c r="J15">
-        <v>0.0315880504032684</v>
+        <v>0.7675676483857359</v>
       </c>
       <c r="K15">
-        <v>13.57015355621519</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.8648410086699982</v>
       </c>
       <c r="M15">
-        <v>8.265381146342861</v>
+        <v>59.15160896023178</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.320916986124985</v>
+        <v>2.619167316450245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2541713807456887</v>
+        <v>0.02712566036905173</v>
       </c>
       <c r="D16">
-        <v>0.1475562489694227</v>
+        <v>0.03774519144172217</v>
       </c>
       <c r="E16">
-        <v>0.05723592724223181</v>
+        <v>0.280092128215351</v>
       </c>
       <c r="F16">
-        <v>3.562000390970809</v>
+        <v>0.5939666241002257</v>
       </c>
       <c r="G16">
-        <v>0.0006805108937167753</v>
+        <v>0.0007149765698005499</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4513759602868248</v>
       </c>
       <c r="J16">
-        <v>0.03112168423330886</v>
+        <v>0.6833646326024905</v>
       </c>
       <c r="K16">
-        <v>12.54698480254933</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.7754755492756829</v>
       </c>
       <c r="M16">
-        <v>7.645447451664865</v>
+        <v>54.06256015665326</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.994304279336873</v>
+        <v>2.25681141828278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2404389230859891</v>
+        <v>0.02487035876639965</v>
       </c>
       <c r="D17">
-        <v>0.1377927387082778</v>
+        <v>0.03618279378001432</v>
       </c>
       <c r="E17">
-        <v>0.0554287370558626</v>
+        <v>0.2613535061159027</v>
       </c>
       <c r="F17">
-        <v>3.351074539479185</v>
+        <v>0.5371876071698551</v>
       </c>
       <c r="G17">
-        <v>0.0006890325086361671</v>
+        <v>0.0007208551872340658</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4086893010773878</v>
       </c>
       <c r="J17">
-        <v>0.03096651964170505</v>
+        <v>0.6368167884985638</v>
       </c>
       <c r="K17">
-        <v>11.93761853623312</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.7257044960626615</v>
       </c>
       <c r="M17">
-        <v>7.276320356530277</v>
+        <v>51.12943605493427</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.809986670849383</v>
+        <v>2.066555525835497</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2327300554547946</v>
+        <v>0.02376461127443008</v>
       </c>
       <c r="D18">
-        <v>0.1324038346331804</v>
+        <v>0.03536943298962569</v>
       </c>
       <c r="E18">
-        <v>0.05440871362877253</v>
+        <v>0.2512083523070459</v>
       </c>
       <c r="F18">
-        <v>3.235706171857629</v>
+        <v>0.5079138805029189</v>
       </c>
       <c r="G18">
-        <v>0.0006938819959929621</v>
+        <v>0.0007241608467440724</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3866066239665926</v>
       </c>
       <c r="J18">
-        <v>0.03092016866484926</v>
+        <v>0.6115400919823344</v>
       </c>
       <c r="K18">
-        <v>11.59292088079306</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6985558880372906</v>
       </c>
       <c r="M18">
-        <v>7.067548289703552</v>
+        <v>49.49767985501802</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.709075058613635</v>
+        <v>1.966804676515466</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2301499884310516</v>
+        <v>0.02341953468430802</v>
       </c>
       <c r="D19">
-        <v>0.1306149301887132</v>
+        <v>0.03510705231380484</v>
       </c>
       <c r="E19">
-        <v>0.05406641798341028</v>
+        <v>0.2478698504416386</v>
       </c>
       <c r="F19">
-        <v>3.197590236021313</v>
+        <v>0.4985266389775944</v>
       </c>
       <c r="G19">
-        <v>0.0006955161179079807</v>
+        <v>0.0007252687709357697</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.379512464754626</v>
       </c>
       <c r="J19">
-        <v>0.0309114029733415</v>
+        <v>0.6032099824458896</v>
       </c>
       <c r="K19">
-        <v>11.47712889958524</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.6895891042463234</v>
       </c>
       <c r="M19">
-        <v>6.997422041049845</v>
+        <v>48.95362025519779</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.675718579407743</v>
+        <v>1.934531949546681</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2418805084835469</v>
+        <v>0.02508973007415705</v>
       </c>
       <c r="D20">
-        <v>0.1388078028678734</v>
+        <v>0.03633987466675137</v>
       </c>
       <c r="E20">
-        <v>0.05561903893634579</v>
+        <v>0.2632797081456033</v>
       </c>
       <c r="F20">
-        <v>3.372893367135106</v>
+        <v>0.542867375646523</v>
       </c>
       <c r="G20">
-        <v>0.0006881310084013442</v>
+        <v>0.000720237635320911</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4129674073315428</v>
       </c>
       <c r="J20">
-        <v>0.0309784900188852</v>
+        <v>0.6416097774884406</v>
       </c>
       <c r="K20">
-        <v>12.00186777114294</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7308425180156064</v>
       </c>
       <c r="M20">
-        <v>7.315236500783271</v>
+        <v>51.4356801081957</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.829063239504492</v>
+        <v>2.085766534046343</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2837795707423396</v>
+        <v>0.03333355639068714</v>
       </c>
       <c r="D21">
-        <v>0.1693290360488362</v>
+        <v>0.04166048853133475</v>
       </c>
       <c r="E21">
-        <v>0.06109105071073984</v>
+        <v>0.3237927194599379</v>
       </c>
       <c r="F21">
-        <v>4.03956825236358</v>
+        <v>0.7376678821468374</v>
       </c>
       <c r="G21">
-        <v>0.0006626042384242273</v>
+        <v>0.0007022724257571646</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5588080366846526</v>
       </c>
       <c r="J21">
-        <v>0.03175379275550227</v>
+        <v>0.7912852442837561</v>
       </c>
       <c r="K21">
-        <v>13.84085461497065</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8898714965580297</v>
       </c>
       <c r="M21">
-        <v>8.429425635831336</v>
+        <v>60.53859934016958</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.410953343499273</v>
+        <v>2.724784615583019</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3136027275628663</v>
+        <v>0.04174766675812691</v>
       </c>
       <c r="D22">
-        <v>0.1922757283647627</v>
+        <v>0.04651222545261646</v>
       </c>
       <c r="E22">
-        <v>0.06492039949249673</v>
+        <v>0.3734801671469583</v>
       </c>
       <c r="F22">
-        <v>4.55080922776321</v>
+        <v>0.9154237672070451</v>
       </c>
       <c r="G22">
-        <v>0.0006451395309380895</v>
+        <v>0.0006892582240473728</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6909218489528541</v>
       </c>
       <c r="J22">
-        <v>0.03276885791240858</v>
+        <v>0.9130493220572902</v>
       </c>
       <c r="K22">
-        <v>15.11716756965143</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.017520998603601</v>
       </c>
       <c r="M22">
-        <v>9.203010453402698</v>
+        <v>67.3718354637748</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.856228842326075</v>
+        <v>3.285940037691319</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2974166513574374</v>
+        <v>0.03688259898048329</v>
       </c>
       <c r="D23">
-        <v>0.1796937307924864</v>
+        <v>0.04375128559286168</v>
       </c>
       <c r="E23">
-        <v>0.062848529599286</v>
+        <v>0.3457022355969031</v>
       </c>
       <c r="F23">
-        <v>4.26966133562172</v>
+        <v>0.8144756235040589</v>
       </c>
       <c r="G23">
-        <v>0.0006545516967437824</v>
+        <v>0.0006963641085708349</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6159782606791424</v>
       </c>
       <c r="J23">
-        <v>0.03217302917393283</v>
+        <v>0.8450914748222829</v>
       </c>
       <c r="K23">
-        <v>14.42778459849822</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.9464471455293477</v>
       </c>
       <c r="M23">
-        <v>8.785141427724483</v>
+        <v>63.61533016679761</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.611436542233051</v>
+        <v>2.969196226306963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2412281952076683</v>
+        <v>0.02498996866186332</v>
       </c>
       <c r="D24">
-        <v>0.1383482030531411</v>
+        <v>0.03626859900441559</v>
       </c>
       <c r="E24">
-        <v>0.05553294517642193</v>
+        <v>0.2624069533327287</v>
       </c>
       <c r="F24">
-        <v>3.363010925494223</v>
+        <v>0.5402892279074152</v>
       </c>
       <c r="G24">
-        <v>0.0006885387283941276</v>
+        <v>0.000720517056164641</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.411025742081236</v>
       </c>
       <c r="J24">
-        <v>0.03097294594799394</v>
+        <v>0.6394383312955227</v>
       </c>
       <c r="K24">
-        <v>11.97280335871682</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7285151405036032</v>
       </c>
       <c r="M24">
-        <v>7.29763191761603</v>
+        <v>51.2970605400879</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.820423163020493</v>
+        <v>2.077051724176187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1877183668562736</v>
+        <v>0.01946275025223088</v>
       </c>
       <c r="D25">
-        <v>0.1022430090077933</v>
+        <v>0.03145555294215541</v>
       </c>
       <c r="E25">
-        <v>0.0483691764223888</v>
+        <v>0.196677285816925</v>
       </c>
       <c r="F25">
-        <v>2.608109308327698</v>
+        <v>0.3730666790047508</v>
       </c>
       <c r="G25">
-        <v>0.0007232795079284319</v>
+        <v>0.0007437013454644301</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2837431997019308</v>
       </c>
       <c r="J25">
-        <v>0.03128973453842221</v>
+        <v>0.4746201537222845</v>
       </c>
       <c r="K25">
-        <v>9.541339835873202</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5497737114134935</v>
       </c>
       <c r="M25">
-        <v>5.82548765566429</v>
+        <v>40.11426002680031</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.158460754889333</v>
+        <v>1.482203592920001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01855384203071964</v>
+        <v>0.1065648418536256</v>
       </c>
       <c r="D2">
-        <v>0.02929201391735603</v>
+        <v>0.08088279698951339</v>
       </c>
       <c r="E2">
-        <v>0.15832469132868</v>
+        <v>0.1222829297080565</v>
       </c>
       <c r="F2">
-        <v>0.309754627292925</v>
+        <v>1.567795569274352</v>
       </c>
       <c r="G2">
-        <v>0.000759783480239018</v>
+        <v>0.00249042828720749</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2336694537848345</v>
+        <v>1.112500021953245</v>
       </c>
       <c r="J2">
-        <v>0.3769786494005416</v>
+        <v>0.2044546736230046</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4414976076105148</v>
+        <v>0.2329032696459166</v>
       </c>
       <c r="M2">
-        <v>32.74377756077473</v>
+        <v>11.1519172752308</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.216085677929357</v>
+        <v>4.356235532505224</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01913946777162678</v>
+        <v>0.1092142457331988</v>
       </c>
       <c r="D3">
-        <v>0.0283440856639956</v>
+        <v>0.08172115098177812</v>
       </c>
       <c r="E3">
-        <v>0.1359365061179538</v>
+        <v>0.1196594475243344</v>
       </c>
       <c r="F3">
-        <v>0.2907658822432069</v>
+        <v>1.614236888944383</v>
       </c>
       <c r="G3">
-        <v>0.0007704506700094077</v>
+        <v>0.002495694760960494</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2171758963285129</v>
+        <v>1.145267340993655</v>
       </c>
       <c r="J3">
-        <v>0.3192713139660697</v>
+        <v>0.1956809204689307</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.376405642865322</v>
+        <v>0.2213196325890152</v>
       </c>
       <c r="M3">
-        <v>28.04681627352687</v>
+        <v>9.83780210534934</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104593536281413</v>
+        <v>4.470633553575965</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01993363661179259</v>
+        <v>0.1109403052833144</v>
       </c>
       <c r="D4">
-        <v>0.02794876765986132</v>
+        <v>0.08228556949231347</v>
       </c>
       <c r="E4">
-        <v>0.1234187254906942</v>
+        <v>0.1181627814050685</v>
       </c>
       <c r="F4">
-        <v>0.2880036644460446</v>
+        <v>1.644714586181884</v>
       </c>
       <c r="G4">
-        <v>0.0007769683402919481</v>
+        <v>0.002499069716987789</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2135315872566039</v>
+        <v>1.166798339124703</v>
       </c>
       <c r="J4">
-        <v>0.2867050587618252</v>
+        <v>0.1904931070311875</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3392323070721375</v>
+        <v>0.2143896021389367</v>
       </c>
       <c r="M4">
-        <v>25.2595014301632</v>
+        <v>9.027308744481047</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.06174753503285</v>
+        <v>4.546372335344444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02034881861315796</v>
+        <v>0.1116684650570363</v>
       </c>
       <c r="D5">
-        <v>0.02782700107320935</v>
+        <v>0.08252801653854647</v>
       </c>
       <c r="E5">
-        <v>0.1185650144549157</v>
+        <v>0.117581124659992</v>
       </c>
       <c r="F5">
-        <v>0.2887784893535965</v>
+        <v>1.657622655888979</v>
       </c>
       <c r="G5">
-        <v>0.00077962573483481</v>
+        <v>0.002500480745365305</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2134304016105588</v>
+        <v>1.17592348697999</v>
       </c>
       <c r="J5">
-        <v>0.2740076518522443</v>
+        <v>0.1884280302143111</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3246409811760884</v>
+        <v>0.2116104444556299</v>
       </c>
       <c r="M5">
-        <v>24.14225222962665</v>
+        <v>8.696095277139705</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.049754474108084</v>
+        <v>4.578603640126815</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02042284499474789</v>
+        <v>0.1117908662072153</v>
       </c>
       <c r="D6">
-        <v>0.0278089679769451</v>
+        <v>0.08256902483990558</v>
       </c>
       <c r="E6">
-        <v>0.1177724598906096</v>
+        <v>0.1174862341672167</v>
       </c>
       <c r="F6">
-        <v>0.2890133299234989</v>
+        <v>1.659795359179128</v>
       </c>
       <c r="G6">
-        <v>0.0007800673169442756</v>
+        <v>0.002500717207035267</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2134908930901709</v>
+        <v>1.177459802190388</v>
       </c>
       <c r="J6">
-        <v>0.271930214498397</v>
+        <v>0.1880880539385146</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.322248112158789</v>
+        <v>0.211151651506583</v>
       </c>
       <c r="M6">
-        <v>23.95771426220847</v>
+        <v>8.641040799143184</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.048068333159847</v>
+        <v>4.584037747539611</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01993888573555935</v>
+        <v>0.1109500254361748</v>
       </c>
       <c r="D7">
-        <v>0.02794697499399845</v>
+        <v>0.08228878890032831</v>
       </c>
       <c r="E7">
-        <v>0.1233523362694662</v>
+        <v>0.1181548231939047</v>
       </c>
       <c r="F7">
-        <v>0.2880068157509683</v>
+        <v>1.644886699397063</v>
       </c>
       <c r="G7">
-        <v>0.0007770041620779322</v>
+        <v>0.002499088601894707</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2135249093394584</v>
+        <v>1.166919987633253</v>
       </c>
       <c r="J7">
-        <v>0.2865316650954384</v>
+        <v>0.1904650597102773</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3390334359223743</v>
+        <v>0.214351940932886</v>
       </c>
       <c r="M7">
-        <v>25.24436511048265</v>
+        <v>9.022845676672375</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.061564804342225</v>
+        <v>4.546801502714871</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0186534828976761</v>
+        <v>0.1074576237473366</v>
       </c>
       <c r="D8">
-        <v>0.0289211893115251</v>
+        <v>0.08116152401294841</v>
       </c>
       <c r="E8">
-        <v>0.150308284951123</v>
+        <v>0.1213543710674472</v>
       </c>
       <c r="F8">
-        <v>0.3011347059269127</v>
+        <v>1.583397999196521</v>
       </c>
       <c r="G8">
-        <v>0.000763474543144227</v>
+        <v>0.002492214940769621</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2264717065003197</v>
+        <v>1.123502840451874</v>
       </c>
       <c r="J8">
-        <v>0.3563860863515202</v>
+        <v>0.2013874188810121</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4183751481726716</v>
+        <v>0.2288707676887327</v>
       </c>
       <c r="M8">
-        <v>31.10034054599458</v>
+        <v>10.69954818896065</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171675576026615</v>
+        <v>4.394529619728047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02069500108778755</v>
+        <v>0.1014060297364097</v>
       </c>
       <c r="D9">
-        <v>0.03280011267028726</v>
+        <v>0.07934733701458896</v>
       </c>
       <c r="E9">
-        <v>0.2167805416021267</v>
+        <v>0.1285572857188697</v>
       </c>
       <c r="F9">
-        <v>0.4177602162986318</v>
+        <v>1.478628955418898</v>
       </c>
       <c r="G9">
-        <v>0.0007361129424431696</v>
+        <v>0.002479848938127008</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.31812715607456</v>
+        <v>1.049737654992072</v>
       </c>
       <c r="J9">
-        <v>0.525322318767806</v>
+        <v>0.2244429513380197</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6052356306180684</v>
+        <v>0.2588386245368355</v>
       </c>
       <c r="M9">
-        <v>43.70430938204606</v>
+        <v>13.96009794403943</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.649189430751647</v>
+        <v>4.140236624260439</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02741202059535652</v>
+        <v>0.09745838865647016</v>
       </c>
       <c r="D10">
-        <v>0.03793644455870293</v>
+        <v>0.07825956124137434</v>
       </c>
       <c r="E10">
-        <v>0.2823265870583143</v>
+        <v>0.1344499326507602</v>
       </c>
       <c r="F10">
-        <v>0.6009526028948216</v>
+        <v>1.411620463770113</v>
       </c>
       <c r="G10">
-        <v>0.0007142941164026695</v>
+        <v>0.002471430499831283</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4566168504449735</v>
+        <v>1.002716676906161</v>
       </c>
       <c r="J10">
-        <v>0.6889036421970047</v>
+        <v>0.2424638378358992</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7813797306296664</v>
+        <v>0.2818450863568955</v>
       </c>
       <c r="M10">
-        <v>54.40566356736053</v>
+        <v>16.34117801188609</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.279969998138739</v>
+        <v>3.981368686833065</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03265166590446</v>
+        <v>0.0957735925526535</v>
       </c>
       <c r="D11">
-        <v>0.04124905210311169</v>
+        <v>0.0778187654510063</v>
       </c>
       <c r="E11">
-        <v>0.3193782004584449</v>
+        <v>0.1372693292923302</v>
       </c>
       <c r="F11">
-        <v>0.722537639885644</v>
+        <v>1.383371948583253</v>
       </c>
       <c r="G11">
-        <v>0.0007034978822181694</v>
+        <v>0.002467742891406368</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5475283047246506</v>
+        <v>0.9829357951622839</v>
       </c>
       <c r="J11">
-        <v>0.7804207305174913</v>
+        <v>0.2509170144259372</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8784128394002977</v>
+        <v>0.2925446841184112</v>
       </c>
       <c r="M11">
-        <v>59.90566050788186</v>
+        <v>17.42185699781629</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.676230535810646</v>
+        <v>3.915374336634159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0351205861306525</v>
+        <v>0.09515181833087638</v>
       </c>
       <c r="D12">
-        <v>0.04272301509097787</v>
+        <v>0.07765969440834652</v>
       </c>
       <c r="E12">
-        <v>0.335031424302862</v>
+        <v>0.138357638597796</v>
       </c>
       <c r="F12">
-        <v>0.7767249570789261</v>
+        <v>1.373002309879944</v>
       </c>
       <c r="G12">
-        <v>0.0006992064078919482</v>
+        <v>0.002466366694807382</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5878973162363437</v>
+        <v>0.975681148860879</v>
       </c>
       <c r="J12">
-        <v>0.8189091926974044</v>
+        <v>0.2541564748574245</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9189524316600881</v>
+        <v>0.2966315802286488</v>
       </c>
       <c r="M12">
-        <v>62.12999420140483</v>
+        <v>17.83077520561966</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.849480259521101</v>
+        <v>3.891303988606722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03456316515772073</v>
+        <v>0.09528500285256314</v>
       </c>
       <c r="D13">
-        <v>0.04239387138573392</v>
+        <v>0.07769360283009519</v>
       </c>
       <c r="E13">
-        <v>0.3315739920812817</v>
+        <v>0.138122320941541</v>
       </c>
       <c r="F13">
-        <v>0.7646299515920916</v>
+        <v>1.375220933038584</v>
       </c>
       <c r="G13">
-        <v>0.0007001415458703392</v>
+        <v>0.002466662187115253</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5788932474313597</v>
+        <v>0.9772329998493632</v>
       </c>
       <c r="J13">
-        <v>0.8104164195930679</v>
+        <v>0.2534570618847312</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9100197793165705</v>
+        <v>0.2957498028667374</v>
       </c>
       <c r="M13">
-        <v>61.64342893661149</v>
+        <v>17.74272041954873</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.810960115411746</v>
+        <v>3.896446751050405</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03284363864019468</v>
+        <v>0.09572211219398241</v>
       </c>
       <c r="D14">
-        <v>0.04136524658286334</v>
+        <v>0.07780552081581504</v>
       </c>
       <c r="E14">
-        <v>0.3206286114755841</v>
+        <v>0.1373584468039084</v>
       </c>
       <c r="F14">
-        <v>0.7268107212187402</v>
+        <v>1.382512233375827</v>
       </c>
       <c r="G14">
-        <v>0.0007031495354036243</v>
+        <v>0.002467629266979211</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5507145728976752</v>
+        <v>0.9823341960668088</v>
       </c>
       <c r="J14">
-        <v>0.7834989111842816</v>
+        <v>0.2511827465582996</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8816605904028165</v>
+        <v>0.2928802009102753</v>
       </c>
       <c r="M14">
-        <v>60.08539807180887</v>
+        <v>17.45550490565125</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.689957915587144</v>
+        <v>3.913375507363583</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03186066141427091</v>
+        <v>0.09599197465176701</v>
       </c>
       <c r="D15">
-        <v>0.04076711687044821</v>
+        <v>0.0778750983558254</v>
       </c>
       <c r="E15">
-        <v>0.3141598942887924</v>
+        <v>0.136893264700376</v>
       </c>
       <c r="F15">
-        <v>0.7048147602946173</v>
+        <v>1.387021196793036</v>
       </c>
       <c r="G15">
-        <v>0.0007049623370690905</v>
+        <v>0.002468224258456993</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5343074218470321</v>
+        <v>0.9854896891631739</v>
       </c>
       <c r="J15">
-        <v>0.7675676483857359</v>
+        <v>0.2497947192111667</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8648410086699982</v>
+        <v>0.2911271179572168</v>
       </c>
       <c r="M15">
-        <v>59.15160896023178</v>
+        <v>17.27953799913621</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.619167316450245</v>
+        <v>3.923865242838247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02712566036905173</v>
+        <v>0.09757074968912605</v>
       </c>
       <c r="D16">
-        <v>0.03774519144172217</v>
+        <v>0.07828946223622069</v>
       </c>
       <c r="E16">
-        <v>0.280092128215351</v>
+        <v>0.134268530823789</v>
       </c>
       <c r="F16">
-        <v>0.5939666241002257</v>
+        <v>1.413512053116015</v>
       </c>
       <c r="G16">
-        <v>0.0007149765698005499</v>
+        <v>0.002471674334171411</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4513759602868248</v>
+        <v>1.00404217182323</v>
       </c>
       <c r="J16">
-        <v>0.6833646326024905</v>
+        <v>0.2419166849992536</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7754755492756829</v>
+        <v>0.2811506793044032</v>
       </c>
       <c r="M16">
-        <v>54.06256015665326</v>
+        <v>16.27050689252047</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.25681141828278</v>
+        <v>3.985809372349621</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02487035876639965</v>
+        <v>0.0985678895932196</v>
       </c>
       <c r="D17">
-        <v>0.03618279378001432</v>
+        <v>0.07855755560130717</v>
       </c>
       <c r="E17">
-        <v>0.2613535061159027</v>
+        <v>0.1326943805195668</v>
       </c>
       <c r="F17">
-        <v>0.5371876071698551</v>
+        <v>1.430339902002281</v>
       </c>
       <c r="G17">
-        <v>0.0007208551872340658</v>
+        <v>0.002473827070450848</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4086893010773878</v>
+        <v>1.01583888128971</v>
       </c>
       <c r="J17">
-        <v>0.6368167884985638</v>
+        <v>0.2371503548845055</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7257044960626615</v>
+        <v>0.2750914297482581</v>
       </c>
       <c r="M17">
-        <v>51.12943605493427</v>
+        <v>15.65089340420388</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.066555525835497</v>
+        <v>4.025430010393677</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02376461127443008</v>
+        <v>0.09915185042208208</v>
       </c>
       <c r="D18">
-        <v>0.03536943298962569</v>
+        <v>0.07871683723231371</v>
       </c>
       <c r="E18">
-        <v>0.2512083523070459</v>
+        <v>0.1318019907956227</v>
       </c>
       <c r="F18">
-        <v>0.5079138805029189</v>
+        <v>1.440228730857555</v>
       </c>
       <c r="G18">
-        <v>0.0007241608467440724</v>
+        <v>0.002475078643562933</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3866066239665926</v>
+        <v>1.022775225607703</v>
       </c>
       <c r="J18">
-        <v>0.6115400919823344</v>
+        <v>0.2344328178469368</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6985558880372906</v>
+        <v>0.2716282200259741</v>
       </c>
       <c r="M18">
-        <v>49.49767985501802</v>
+        <v>15.29427103283427</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.966804676515466</v>
+        <v>4.0488083441181</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02341953468430802</v>
+        <v>0.09935135354265867</v>
       </c>
       <c r="D19">
-        <v>0.03510705231380484</v>
+        <v>0.07877163769551743</v>
       </c>
       <c r="E19">
-        <v>0.2478698504416386</v>
+        <v>0.1315020583451627</v>
       </c>
       <c r="F19">
-        <v>0.4985266389775944</v>
+        <v>1.443612780344992</v>
       </c>
       <c r="G19">
-        <v>0.0007252687709357697</v>
+        <v>0.002475504708101421</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.379512464754626</v>
+        <v>1.025149582248659</v>
       </c>
       <c r="J19">
-        <v>0.6032099824458896</v>
+        <v>0.2335167663045183</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6895891042463234</v>
+        <v>0.2704593538953475</v>
       </c>
       <c r="M19">
-        <v>48.95362025519779</v>
+        <v>15.17348278445161</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.934531949546681</v>
+        <v>4.056824569110233</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02508973007415705</v>
+        <v>0.09846066079640536</v>
       </c>
       <c r="D20">
-        <v>0.03633987466675137</v>
+        <v>0.07852849014928154</v>
       </c>
       <c r="E20">
-        <v>0.2632797081456033</v>
+        <v>0.1328605990243901</v>
       </c>
       <c r="F20">
-        <v>0.542867375646523</v>
+        <v>1.428526780719515</v>
       </c>
       <c r="G20">
-        <v>0.000720237635320911</v>
+        <v>0.002473596525136091</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4129674073315428</v>
+        <v>1.014567421281576</v>
       </c>
       <c r="J20">
-        <v>0.6416097774884406</v>
+        <v>0.2376552502004614</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7308425180156064</v>
+        <v>0.2757341685747434</v>
       </c>
       <c r="M20">
-        <v>51.4356801081957</v>
+        <v>15.71687653681835</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.085766534046343</v>
+        <v>4.021151176970335</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03333355639068714</v>
+        <v>0.0955932802250814</v>
       </c>
       <c r="D21">
-        <v>0.04166048853133475</v>
+        <v>0.07777243412872537</v>
       </c>
       <c r="E21">
-        <v>0.3237927194599379</v>
+        <v>0.1375822484751197</v>
       </c>
       <c r="F21">
-        <v>0.7376678821468374</v>
+        <v>1.380361664429259</v>
       </c>
       <c r="G21">
-        <v>0.0007022724257571646</v>
+        <v>0.002467344664834697</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5588080366846526</v>
+        <v>0.9808294110050397</v>
       </c>
       <c r="J21">
-        <v>0.7912852442837561</v>
+        <v>0.2518497111528575</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8898714965580297</v>
+        <v>0.2937221045032175</v>
       </c>
       <c r="M21">
-        <v>60.53859934016958</v>
+        <v>17.53987512595756</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.724784615583019</v>
+        <v>3.908378001100942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04174766675812691</v>
+        <v>0.09381395963564643</v>
       </c>
       <c r="D22">
-        <v>0.04651222545261646</v>
+        <v>0.0773240963387849</v>
       </c>
       <c r="E22">
-        <v>0.3734801671469583</v>
+        <v>0.1407889291071598</v>
       </c>
       <c r="F22">
-        <v>0.9154237672070451</v>
+        <v>1.350794634706808</v>
       </c>
       <c r="G22">
-        <v>0.0006892582240473728</v>
+        <v>0.002463376476993439</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6909218489528541</v>
+        <v>0.9601571023911148</v>
       </c>
       <c r="J22">
-        <v>0.9130493220572902</v>
+        <v>0.2613514516842912</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.017520998603601</v>
+        <v>0.3056841809273294</v>
       </c>
       <c r="M22">
-        <v>67.3718354637748</v>
+        <v>18.72951951418838</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.285940037691319</v>
+        <v>3.840046832958535</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03688259898048329</v>
+        <v>0.09475486536881306</v>
       </c>
       <c r="D23">
-        <v>0.04375128559286168</v>
+        <v>0.07755916585448119</v>
       </c>
       <c r="E23">
-        <v>0.3457022355969031</v>
+        <v>0.139066164826545</v>
       </c>
       <c r="F23">
-        <v>0.8144756235040589</v>
+        <v>1.366398115004849</v>
       </c>
       <c r="G23">
-        <v>0.0006963641085708349</v>
+        <v>0.002465483664677844</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6159782606791424</v>
+        <v>0.9710627449396938</v>
       </c>
       <c r="J23">
-        <v>0.8450914748222829</v>
+        <v>0.2562590317291438</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9464471455293477</v>
+        <v>0.2992804091813355</v>
       </c>
       <c r="M23">
-        <v>63.61533016679761</v>
+        <v>18.09473124515767</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.969196226306963</v>
+        <v>3.876018879193538</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02498996866186332</v>
+        <v>0.09850910565269544</v>
       </c>
       <c r="D24">
-        <v>0.03626859900441559</v>
+        <v>0.07854161460127074</v>
       </c>
       <c r="E24">
-        <v>0.2624069533327287</v>
+        <v>0.1327854124130923</v>
       </c>
       <c r="F24">
-        <v>0.5402892279074152</v>
+        <v>1.429345825904186</v>
       </c>
       <c r="G24">
-        <v>0.000720517056164641</v>
+        <v>0.002473700711176031</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.411025742081236</v>
+        <v>1.015141768212388</v>
       </c>
       <c r="J24">
-        <v>0.6394383312955227</v>
+        <v>0.2374269164824909</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7285151405036032</v>
+        <v>0.2754435231337737</v>
       </c>
       <c r="M24">
-        <v>51.2970605400879</v>
+        <v>15.68704680666951</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.077051724176187</v>
+        <v>4.023083770352628</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01946275025223088</v>
+        <v>0.1029565490084252</v>
       </c>
       <c r="D25">
-        <v>0.03145555294215541</v>
+        <v>0.0797953461983667</v>
       </c>
       <c r="E25">
-        <v>0.196677285816925</v>
+        <v>0.1265058624042865</v>
       </c>
       <c r="F25">
-        <v>0.3730666790047508</v>
+        <v>1.505245650734317</v>
       </c>
       <c r="G25">
-        <v>0.0007437013454644301</v>
+        <v>0.002483076290705644</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2837431997019308</v>
+        <v>1.068450708353964</v>
       </c>
       <c r="J25">
-        <v>0.4746201537222845</v>
+        <v>0.2180222315185887</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5497737114134935</v>
+        <v>0.2505637354316974</v>
       </c>
       <c r="M25">
-        <v>40.11426002680031</v>
+        <v>13.08075262910694</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.482203592920001</v>
+        <v>4.204188609592194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1065648418536256</v>
+        <v>0.01855384203072674</v>
       </c>
       <c r="D2">
-        <v>0.08088279698951339</v>
+        <v>0.0292920139173134</v>
       </c>
       <c r="E2">
-        <v>0.1222829297080565</v>
+        <v>0.1583246913286729</v>
       </c>
       <c r="F2">
-        <v>1.567795569274352</v>
+        <v>0.3097546272929108</v>
       </c>
       <c r="G2">
-        <v>0.00249042828720749</v>
+        <v>0.0007597834801896686</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.112500021953245</v>
+        <v>0.2336694537848274</v>
       </c>
       <c r="J2">
-        <v>0.2044546736230046</v>
+        <v>0.3769786494005274</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2329032696459166</v>
+        <v>0.4414976076105859</v>
       </c>
       <c r="M2">
-        <v>11.1519172752308</v>
+        <v>32.74377756077479</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.356235532505224</v>
+        <v>1.216085677929271</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1092142457331988</v>
+        <v>0.01913946777141007</v>
       </c>
       <c r="D3">
-        <v>0.08172115098177812</v>
+        <v>0.02834408566388902</v>
       </c>
       <c r="E3">
-        <v>0.1196594475243344</v>
+        <v>0.1359365061179538</v>
       </c>
       <c r="F3">
-        <v>1.614236888944383</v>
+        <v>0.2907658822431998</v>
       </c>
       <c r="G3">
-        <v>0.002495694760960494</v>
+        <v>0.0007704506700313936</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.145267340993655</v>
+        <v>0.2171758963285022</v>
       </c>
       <c r="J3">
-        <v>0.1956809204689307</v>
+        <v>0.319271313966027</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2213196325890152</v>
+        <v>0.3764056428653362</v>
       </c>
       <c r="M3">
-        <v>9.83780210534934</v>
+        <v>28.04681627352699</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.470633553575965</v>
+        <v>1.104593536281328</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1109403052833144</v>
+        <v>0.01993363661155811</v>
       </c>
       <c r="D4">
-        <v>0.08228556949231347</v>
+        <v>0.02794876766013132</v>
       </c>
       <c r="E4">
-        <v>0.1181627814050685</v>
+        <v>0.1234187254907226</v>
       </c>
       <c r="F4">
-        <v>1.644714586181884</v>
+        <v>0.2880036644460446</v>
       </c>
       <c r="G4">
-        <v>0.002499069716987789</v>
+        <v>0.0007769683402547012</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.166798339124703</v>
+        <v>0.2135315872566004</v>
       </c>
       <c r="J4">
-        <v>0.1904931070311875</v>
+        <v>0.2867050587618252</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2143896021389367</v>
+        <v>0.3392323070721517</v>
       </c>
       <c r="M4">
-        <v>9.027308744481047</v>
+        <v>25.25950143016337</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.546372335344444</v>
+        <v>1.061747535032822</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1116684650570363</v>
+        <v>0.02034881861315796</v>
       </c>
       <c r="D5">
-        <v>0.08252801653854647</v>
+        <v>0.02782700107301039</v>
       </c>
       <c r="E5">
-        <v>0.117581124659992</v>
+        <v>0.1185650144549371</v>
       </c>
       <c r="F5">
-        <v>1.657622655888979</v>
+        <v>0.2887784893535965</v>
       </c>
       <c r="G5">
-        <v>0.002500480745365305</v>
+        <v>0.0007796257348910526</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.17592348697999</v>
+        <v>0.2134304016105411</v>
       </c>
       <c r="J5">
-        <v>0.1884280302143111</v>
+        <v>0.2740076518522301</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2116104444556299</v>
+        <v>0.3246409811760884</v>
       </c>
       <c r="M5">
-        <v>8.696095277139705</v>
+        <v>24.14225222962654</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.578603640126815</v>
+        <v>1.049754474107971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1117908662072153</v>
+        <v>0.02042284499505342</v>
       </c>
       <c r="D6">
-        <v>0.08256902483990558</v>
+        <v>0.02780896797717247</v>
       </c>
       <c r="E6">
-        <v>0.1174862341672167</v>
+        <v>0.1177724598906273</v>
       </c>
       <c r="F6">
-        <v>1.659795359179128</v>
+        <v>0.2890133299235131</v>
       </c>
       <c r="G6">
-        <v>0.002500717207035267</v>
+        <v>0.0007800673169245931</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.177459802190388</v>
+        <v>0.2134908930901709</v>
       </c>
       <c r="J6">
-        <v>0.1880880539385146</v>
+        <v>0.2719302144984113</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.211151651506583</v>
+        <v>0.3222481121588032</v>
       </c>
       <c r="M6">
-        <v>8.641040799143184</v>
+        <v>23.95771426220864</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.584037747539611</v>
+        <v>1.048068333159904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1109500254361748</v>
+        <v>0.01993888573548119</v>
       </c>
       <c r="D7">
-        <v>0.08228878890032831</v>
+        <v>0.02794697499411924</v>
       </c>
       <c r="E7">
-        <v>0.1181548231939047</v>
+        <v>0.1233523362694093</v>
       </c>
       <c r="F7">
-        <v>1.644886699397063</v>
+        <v>0.2880068157509683</v>
       </c>
       <c r="G7">
-        <v>0.002499088601894707</v>
+        <v>0.0007770041621921423</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.166919987633253</v>
+        <v>0.2135249093394727</v>
       </c>
       <c r="J7">
-        <v>0.1904650597102773</v>
+        <v>0.2865316650954526</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.214351940932886</v>
+        <v>0.3390334359223885</v>
       </c>
       <c r="M7">
-        <v>9.022845676672375</v>
+        <v>25.24436511048276</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.546801502714871</v>
+        <v>1.061564804342311</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1074576237473366</v>
+        <v>0.01865348289737057</v>
       </c>
       <c r="D8">
-        <v>0.08116152401294841</v>
+        <v>0.0289211893115251</v>
       </c>
       <c r="E8">
-        <v>0.1213543710674472</v>
+        <v>0.1503082849510946</v>
       </c>
       <c r="F8">
-        <v>1.583397999196521</v>
+        <v>0.3011347059269056</v>
       </c>
       <c r="G8">
-        <v>0.002492214940769621</v>
+        <v>0.0007634745431441381</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.123502840451874</v>
+        <v>0.2264717065003197</v>
       </c>
       <c r="J8">
-        <v>0.2013874188810121</v>
+        <v>0.3563860863515345</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2288707676887327</v>
+        <v>0.4183751481727711</v>
       </c>
       <c r="M8">
-        <v>10.69954818896065</v>
+        <v>31.10034054599447</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.394529619728047</v>
+        <v>1.171675576026615</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1014060297364097</v>
+        <v>0.02069500108778755</v>
       </c>
       <c r="D9">
-        <v>0.07934733701458896</v>
+        <v>0.03280011267018779</v>
       </c>
       <c r="E9">
-        <v>0.1285572857188697</v>
+        <v>0.2167805416021196</v>
       </c>
       <c r="F9">
-        <v>1.478628955418898</v>
+        <v>0.4177602162986247</v>
       </c>
       <c r="G9">
-        <v>0.002479848938127008</v>
+        <v>0.0007361129424192254</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.049737654992072</v>
+        <v>0.3181271560745316</v>
       </c>
       <c r="J9">
-        <v>0.2244429513380197</v>
+        <v>0.5253223187677634</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2588386245368355</v>
+        <v>0.605235630618111</v>
       </c>
       <c r="M9">
-        <v>13.96009794403943</v>
+        <v>43.70430938204612</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.140236624260439</v>
+        <v>1.649189430751704</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09745838865647016</v>
+        <v>0.0274120205954631</v>
       </c>
       <c r="D10">
-        <v>0.07825956124137434</v>
+        <v>0.03793644455875977</v>
       </c>
       <c r="E10">
-        <v>0.1344499326507602</v>
+        <v>0.2823265870583072</v>
       </c>
       <c r="F10">
-        <v>1.411620463770113</v>
+        <v>0.6009526028948216</v>
       </c>
       <c r="G10">
-        <v>0.002471430499831283</v>
+        <v>0.0007142941163767874</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.002716676906161</v>
+        <v>0.4566168504449735</v>
       </c>
       <c r="J10">
-        <v>0.2424638378358992</v>
+        <v>0.6889036421970189</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2818450863568955</v>
+        <v>0.7813797306296948</v>
       </c>
       <c r="M10">
-        <v>16.34117801188609</v>
+        <v>54.40566356736053</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.981368686833065</v>
+        <v>2.279969998138682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0957735925526535</v>
+        <v>0.0326516659045808</v>
       </c>
       <c r="D11">
-        <v>0.0778187654510063</v>
+        <v>0.04124905210306906</v>
       </c>
       <c r="E11">
-        <v>0.1372693292923302</v>
+        <v>0.3193782004584733</v>
       </c>
       <c r="F11">
-        <v>1.383371948583253</v>
+        <v>0.7225376398856511</v>
       </c>
       <c r="G11">
-        <v>0.002467742891406368</v>
+        <v>0.0007034978821917776</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9829357951622839</v>
+        <v>0.5475283047246648</v>
       </c>
       <c r="J11">
-        <v>0.2509170144259372</v>
+        <v>0.7804207305175197</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2925446841184112</v>
+        <v>0.8784128394002693</v>
       </c>
       <c r="M11">
-        <v>17.42185699781629</v>
+        <v>59.90566050788198</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.915374336634159</v>
+        <v>2.676230535810589</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09515181833087638</v>
+        <v>0.03512058613077329</v>
       </c>
       <c r="D12">
-        <v>0.07765969440834652</v>
+        <v>0.04272301509124787</v>
       </c>
       <c r="E12">
-        <v>0.138357638597796</v>
+        <v>0.3350314243028549</v>
       </c>
       <c r="F12">
-        <v>1.373002309879944</v>
+        <v>0.7767249570789332</v>
       </c>
       <c r="G12">
-        <v>0.002466366694807382</v>
+        <v>0.0006992064079184312</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.975681148860879</v>
+        <v>0.5878973162363295</v>
       </c>
       <c r="J12">
-        <v>0.2541564748574245</v>
+        <v>0.8189091926974044</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2966315802286488</v>
+        <v>0.9189524316601307</v>
       </c>
       <c r="M12">
-        <v>17.83077520561966</v>
+        <v>62.12999420140488</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.891303988606722</v>
+        <v>2.849480259521044</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09528500285256314</v>
+        <v>0.03456316515782731</v>
       </c>
       <c r="D13">
-        <v>0.07769360283009519</v>
+        <v>0.04239387138550654</v>
       </c>
       <c r="E13">
-        <v>0.138122320941541</v>
+        <v>0.3315739920812817</v>
       </c>
       <c r="F13">
-        <v>1.375220933038584</v>
+        <v>0.7646299515920987</v>
       </c>
       <c r="G13">
-        <v>0.002466662187115253</v>
+        <v>0.000700141545924296</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9772329998493632</v>
+        <v>0.5788932474313597</v>
       </c>
       <c r="J13">
-        <v>0.2534570618847312</v>
+        <v>0.8104164195930679</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2957498028667374</v>
+        <v>0.9100197793166132</v>
       </c>
       <c r="M13">
-        <v>17.74272041954873</v>
+        <v>61.64342893661131</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.896446751050405</v>
+        <v>2.810960115411774</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09572211219398241</v>
+        <v>0.03284363863999573</v>
       </c>
       <c r="D14">
-        <v>0.07780552081581504</v>
+        <v>0.0413652465830836</v>
       </c>
       <c r="E14">
-        <v>0.1373584468039084</v>
+        <v>0.320628611475577</v>
       </c>
       <c r="F14">
-        <v>1.382512233375827</v>
+        <v>0.7268107212187331</v>
       </c>
       <c r="G14">
-        <v>0.002467629266979211</v>
+        <v>0.0007031495354042854</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9823341960668088</v>
+        <v>0.5507145728976752</v>
       </c>
       <c r="J14">
-        <v>0.2511827465582996</v>
+        <v>0.7834989111842248</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2928802009102753</v>
+        <v>0.8816605904028734</v>
       </c>
       <c r="M14">
-        <v>17.45550490565125</v>
+        <v>60.08539807180875</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.913375507363583</v>
+        <v>2.689957915587115</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09599197465176701</v>
+        <v>0.03186066141416433</v>
       </c>
       <c r="D15">
-        <v>0.0778750983558254</v>
+        <v>0.04076711687016399</v>
       </c>
       <c r="E15">
-        <v>0.136893264700376</v>
+        <v>0.3141598942887924</v>
       </c>
       <c r="F15">
-        <v>1.387021196793036</v>
+        <v>0.7048147602946244</v>
       </c>
       <c r="G15">
-        <v>0.002468224258456993</v>
+        <v>0.0007049623370398161</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9854896891631739</v>
+        <v>0.534307421847025</v>
       </c>
       <c r="J15">
-        <v>0.2497947192111667</v>
+        <v>0.7675676483858496</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2911271179572168</v>
+        <v>0.8648410086699698</v>
       </c>
       <c r="M15">
-        <v>17.27953799913621</v>
+        <v>59.15160896023127</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.923865242838247</v>
+        <v>2.619167316450216</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09757074968912605</v>
+        <v>0.02712566036917252</v>
       </c>
       <c r="D16">
-        <v>0.07828946223622069</v>
+        <v>0.03774519144167954</v>
       </c>
       <c r="E16">
-        <v>0.134268530823789</v>
+        <v>0.2800921282153226</v>
       </c>
       <c r="F16">
-        <v>1.413512053116015</v>
+        <v>0.5939666241002186</v>
       </c>
       <c r="G16">
-        <v>0.002471674334171411</v>
+        <v>0.0007149765698005569</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.00404217182323</v>
+        <v>0.451375960286839</v>
       </c>
       <c r="J16">
-        <v>0.2419166849992536</v>
+        <v>0.6833646326024763</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2811506793044032</v>
+        <v>0.7754755492756544</v>
       </c>
       <c r="M16">
-        <v>16.27050689252047</v>
+        <v>54.06256015665326</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.985809372349621</v>
+        <v>2.25681141828278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0985678895932196</v>
+        <v>0.02487035876641386</v>
       </c>
       <c r="D17">
-        <v>0.07855755560130717</v>
+        <v>0.03618279378010669</v>
       </c>
       <c r="E17">
-        <v>0.1326943805195668</v>
+        <v>0.2613535061158672</v>
       </c>
       <c r="F17">
-        <v>1.430339902002281</v>
+        <v>0.537187607169848</v>
       </c>
       <c r="G17">
-        <v>0.002473827070450848</v>
+        <v>0.0007208551872346369</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.01583888128971</v>
+        <v>0.408689301077402</v>
       </c>
       <c r="J17">
-        <v>0.2371503548845055</v>
+        <v>0.6368167884985354</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2750914297482581</v>
+        <v>0.7257044960627326</v>
       </c>
       <c r="M17">
-        <v>15.65089340420388</v>
+        <v>51.12943605493433</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.025430010393677</v>
+        <v>2.06655552583544</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09915185042208208</v>
+        <v>0.02376461127463614</v>
       </c>
       <c r="D18">
-        <v>0.07871683723231371</v>
+        <v>0.03536943298945516</v>
       </c>
       <c r="E18">
-        <v>0.1318019907956227</v>
+        <v>0.251208352307053</v>
       </c>
       <c r="F18">
-        <v>1.440228730857555</v>
+        <v>0.5079138805029118</v>
       </c>
       <c r="G18">
-        <v>0.002475078643562933</v>
+        <v>0.000724160846719138</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.022775225607703</v>
+        <v>0.3866066239665784</v>
       </c>
       <c r="J18">
-        <v>0.2344328178469368</v>
+        <v>0.6115400919823628</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2716282200259741</v>
+        <v>0.6985558880373048</v>
       </c>
       <c r="M18">
-        <v>15.29427103283427</v>
+        <v>49.49767985501813</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.0488083441181</v>
+        <v>1.966804676515466</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09935135354265867</v>
+        <v>0.02341953468419433</v>
       </c>
       <c r="D19">
-        <v>0.07877163769551743</v>
+        <v>0.03510705231362721</v>
       </c>
       <c r="E19">
-        <v>0.1315020583451627</v>
+        <v>0.2478698504416528</v>
       </c>
       <c r="F19">
-        <v>1.443612780344992</v>
+        <v>0.4985266389775873</v>
       </c>
       <c r="G19">
-        <v>0.002475504708101421</v>
+        <v>0.0007252687709339001</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.025149582248659</v>
+        <v>0.379512464754626</v>
       </c>
       <c r="J19">
-        <v>0.2335167663045183</v>
+        <v>0.6032099824459181</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2704593538953475</v>
+        <v>0.6895891042462807</v>
       </c>
       <c r="M19">
-        <v>15.17348278445161</v>
+        <v>48.95362025519808</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.056824569110233</v>
+        <v>1.934531949546624</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09846066079640536</v>
+        <v>0.02508973007424942</v>
       </c>
       <c r="D20">
-        <v>0.07852849014928154</v>
+        <v>0.03633987466651689</v>
       </c>
       <c r="E20">
-        <v>0.1328605990243901</v>
+        <v>0.2632797081456175</v>
       </c>
       <c r="F20">
-        <v>1.428526780719515</v>
+        <v>0.5428673756465017</v>
       </c>
       <c r="G20">
-        <v>0.002473596525136091</v>
+        <v>0.0007202376353204176</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.014567421281576</v>
+        <v>0.4129674073315144</v>
       </c>
       <c r="J20">
-        <v>0.2376552502004614</v>
+        <v>0.6416097774884832</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2757341685747434</v>
+        <v>0.7308425180156348</v>
       </c>
       <c r="M20">
-        <v>15.71687653681835</v>
+        <v>51.43568010819564</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.021151176970335</v>
+        <v>2.0857665340464</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0955932802250814</v>
+        <v>0.03333355639058766</v>
       </c>
       <c r="D21">
-        <v>0.07777243412872537</v>
+        <v>0.0416604885313987</v>
       </c>
       <c r="E21">
-        <v>0.1375822484751197</v>
+        <v>0.3237927194599308</v>
       </c>
       <c r="F21">
-        <v>1.380361664429259</v>
+        <v>0.7376678821468303</v>
       </c>
       <c r="G21">
-        <v>0.002467344664834697</v>
+        <v>0.0007022724257850615</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9808294110050397</v>
+        <v>0.5588080366846455</v>
       </c>
       <c r="J21">
-        <v>0.2518497111528575</v>
+        <v>0.7912852442836709</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2937221045032175</v>
+        <v>0.8898714965581433</v>
       </c>
       <c r="M21">
-        <v>17.53987512595756</v>
+        <v>60.5385993401697</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.908378001100942</v>
+        <v>2.724784615583019</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09381395963564643</v>
+        <v>0.04174766675802744</v>
       </c>
       <c r="D22">
-        <v>0.0773240963387849</v>
+        <v>0.04651222545282252</v>
       </c>
       <c r="E22">
-        <v>0.1407889291071598</v>
+        <v>0.3734801671469867</v>
       </c>
       <c r="F22">
-        <v>1.350794634706808</v>
+        <v>0.9154237672070593</v>
       </c>
       <c r="G22">
-        <v>0.002463376476993439</v>
+        <v>0.0006892582240190173</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9601571023911148</v>
+        <v>0.6909218489528755</v>
       </c>
       <c r="J22">
-        <v>0.2613514516842912</v>
+        <v>0.9130493220573044</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3056841809273294</v>
+        <v>1.017520998603729</v>
       </c>
       <c r="M22">
-        <v>18.72951951418838</v>
+        <v>67.37183546377486</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.840046832958535</v>
+        <v>3.285940037691432</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09475486536881306</v>
+        <v>0.03688259898048329</v>
       </c>
       <c r="D23">
-        <v>0.07755916585448119</v>
+        <v>0.04375128559312458</v>
       </c>
       <c r="E23">
-        <v>0.139066164826545</v>
+        <v>0.3457022355968746</v>
       </c>
       <c r="F23">
-        <v>1.366398115004849</v>
+        <v>0.814475623504066</v>
       </c>
       <c r="G23">
-        <v>0.002465483664677844</v>
+        <v>0.00069636410857018</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9710627449396938</v>
+        <v>0.6159782606791566</v>
       </c>
       <c r="J23">
-        <v>0.2562590317291438</v>
+        <v>0.8450914748222687</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2992804091813355</v>
+        <v>0.9464471455293619</v>
       </c>
       <c r="M23">
-        <v>18.09473124515767</v>
+        <v>63.61533016679778</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.876018879193538</v>
+        <v>2.969196226306934</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09850910565269544</v>
+        <v>0.02498996866155068</v>
       </c>
       <c r="D24">
-        <v>0.07854161460127074</v>
+        <v>0.03626859900434454</v>
       </c>
       <c r="E24">
-        <v>0.1327854124130923</v>
+        <v>0.26240695333275</v>
       </c>
       <c r="F24">
-        <v>1.429345825904186</v>
+        <v>0.5402892279074223</v>
       </c>
       <c r="G24">
-        <v>0.002473700711176031</v>
+        <v>0.0007205170561108604</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.015141768212388</v>
+        <v>0.4110257420812431</v>
       </c>
       <c r="J24">
-        <v>0.2374269164824909</v>
+        <v>0.6394383312955227</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2754435231337737</v>
+        <v>0.7285151405036032</v>
       </c>
       <c r="M24">
-        <v>15.68704680666951</v>
+        <v>51.29706054008795</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.023083770352628</v>
+        <v>2.077051724176215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1029565490084252</v>
+        <v>0.01946275025208166</v>
       </c>
       <c r="D25">
-        <v>0.0797953461983667</v>
+        <v>0.0314555529421483</v>
       </c>
       <c r="E25">
-        <v>0.1265058624042865</v>
+        <v>0.1966772858169108</v>
       </c>
       <c r="F25">
-        <v>1.505245650734317</v>
+        <v>0.3730666790047579</v>
       </c>
       <c r="G25">
-        <v>0.002483076290705644</v>
+        <v>0.0007437013454592578</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.068450708353964</v>
+        <v>0.2837431997019237</v>
       </c>
       <c r="J25">
-        <v>0.2180222315185887</v>
+        <v>0.4746201537221992</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2505637354316974</v>
+        <v>0.5497737114135646</v>
       </c>
       <c r="M25">
-        <v>13.08075262910694</v>
+        <v>40.11426002680025</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.204188609592194</v>
+        <v>1.482203592919944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01855384203072674</v>
+        <v>0.07095607872662413</v>
       </c>
       <c r="D2">
-        <v>0.0292920139173134</v>
+        <v>0.1660960923156694</v>
       </c>
       <c r="E2">
-        <v>0.1583246913286729</v>
+        <v>0.09620134839433092</v>
       </c>
       <c r="F2">
-        <v>0.3097546272929108</v>
+        <v>0.5035867420133542</v>
       </c>
       <c r="G2">
-        <v>0.0007597834801896686</v>
+        <v>0.2548998440746999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004459700724610549</v>
       </c>
       <c r="I2">
-        <v>0.2336694537848274</v>
+        <v>0.003617189450226821</v>
       </c>
       <c r="J2">
-        <v>0.3769786494005274</v>
+        <v>0.2549192925451962</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2833801221469621</v>
       </c>
       <c r="L2">
-        <v>0.4414976076105859</v>
+        <v>0.08821703349990884</v>
       </c>
       <c r="M2">
-        <v>32.74377756077479</v>
+        <v>3.625962127293064</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.216085677929271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8226059962655086</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.022225920432746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01913946777141007</v>
+        <v>0.06160236035525202</v>
       </c>
       <c r="D3">
-        <v>0.02834408566388902</v>
+        <v>0.1505224699311185</v>
       </c>
       <c r="E3">
-        <v>0.1359365061179538</v>
+        <v>0.08975905952164354</v>
       </c>
       <c r="F3">
-        <v>0.2907658822431998</v>
+        <v>0.4928337913935579</v>
       </c>
       <c r="G3">
-        <v>0.0007704506700313936</v>
+        <v>0.2521592323178226</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001160385058270319</v>
       </c>
       <c r="I3">
-        <v>0.2171758963285022</v>
+        <v>0.002280249956168934</v>
       </c>
       <c r="J3">
-        <v>0.319271313966027</v>
+        <v>0.2585478922430013</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2772780073997794</v>
       </c>
       <c r="L3">
-        <v>0.3764056428653362</v>
+        <v>0.08426768195786138</v>
       </c>
       <c r="M3">
-        <v>28.04681627352699</v>
+        <v>3.166393272607934</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104593536281328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7175042339985183</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.023712739176602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01993363661155811</v>
+        <v>0.05570896655211044</v>
       </c>
       <c r="D4">
-        <v>0.02794876766013132</v>
+        <v>0.1410187632257873</v>
       </c>
       <c r="E4">
-        <v>0.1234187254907226</v>
+        <v>0.08580796384726952</v>
       </c>
       <c r="F4">
-        <v>0.2880036644460446</v>
+        <v>0.4868089059677274</v>
       </c>
       <c r="G4">
-        <v>0.0007769683402547012</v>
+        <v>0.25093647399828</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001789061100450184</v>
       </c>
       <c r="I4">
-        <v>0.2135315872566004</v>
+        <v>0.001633973934970889</v>
       </c>
       <c r="J4">
-        <v>0.2867050587618252</v>
+        <v>0.2610862471161752</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2737691721333562</v>
       </c>
       <c r="L4">
-        <v>0.3392323070721517</v>
+        <v>0.08181561204426657</v>
       </c>
       <c r="M4">
-        <v>25.25950143016337</v>
+        <v>2.883599347060311</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.061747535032822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6528924402560676</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.026243104194748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02034881861315796</v>
+        <v>0.05289775679273845</v>
       </c>
       <c r="D5">
-        <v>0.02782700107301039</v>
+        <v>0.1372455223135916</v>
       </c>
       <c r="E5">
-        <v>0.1185650144549371</v>
+        <v>0.08420803998718895</v>
       </c>
       <c r="F5">
-        <v>0.2887784893535965</v>
+        <v>0.4841158722041996</v>
       </c>
       <c r="G5">
-        <v>0.0007796257348910526</v>
+        <v>0.2502387068883394</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002092036887898052</v>
       </c>
       <c r="I5">
-        <v>0.2134304016105411</v>
+        <v>0.001470007587589528</v>
       </c>
       <c r="J5">
-        <v>0.2740076518522301</v>
+        <v>0.262034186915983</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.27198212257451</v>
       </c>
       <c r="L5">
-        <v>0.3246409811760884</v>
+        <v>0.08079204385800054</v>
       </c>
       <c r="M5">
-        <v>24.14225222962654</v>
+        <v>2.768133322838366</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.049754474107971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6265721708814809</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.026668017677309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02042284499505342</v>
+        <v>0.05197482879573556</v>
       </c>
       <c r="D6">
-        <v>0.02780896797717247</v>
+        <v>0.136725120332656</v>
       </c>
       <c r="E6">
-        <v>0.1177724598906273</v>
+        <v>0.08395421952563353</v>
       </c>
       <c r="F6">
-        <v>0.2890133299235131</v>
+        <v>0.4832159298983001</v>
       </c>
       <c r="G6">
-        <v>0.0007800673169245931</v>
+        <v>0.2497510666645866</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002146656077784415</v>
       </c>
       <c r="I6">
-        <v>0.2134908930901709</v>
+        <v>0.001523561206978385</v>
       </c>
       <c r="J6">
-        <v>0.2719302144984113</v>
+        <v>0.2619980306090142</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2711828261301044</v>
       </c>
       <c r="L6">
-        <v>0.3222481121588032</v>
+        <v>0.08060079830672606</v>
       </c>
       <c r="M6">
-        <v>23.95771426220864</v>
+        <v>2.748879462845053</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.048068333159904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6222409604223103</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.025544557649567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01993888573548119</v>
+        <v>0.05442369403021274</v>
       </c>
       <c r="D7">
-        <v>0.02794697499411924</v>
+        <v>0.1412559844143715</v>
       </c>
       <c r="E7">
-        <v>0.1233523362694093</v>
+        <v>0.08581896442452575</v>
       </c>
       <c r="F7">
-        <v>0.2880068157509683</v>
+        <v>0.485513855000768</v>
       </c>
       <c r="G7">
-        <v>0.0007770041621921423</v>
+        <v>0.2498937918355892</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001796922491326125</v>
       </c>
       <c r="I7">
-        <v>0.2135249093394727</v>
+        <v>0.001830239912450793</v>
       </c>
       <c r="J7">
-        <v>0.2865316650954526</v>
+        <v>0.2605589477230978</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2723618163930439</v>
       </c>
       <c r="L7">
-        <v>0.3390334359223885</v>
+        <v>0.08174530452268414</v>
       </c>
       <c r="M7">
-        <v>25.24436511048276</v>
+        <v>2.881849725675892</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.061564804342311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6526488375016584</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.022926290487348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01865348289737057</v>
+        <v>0.06608962493395154</v>
       </c>
       <c r="D8">
-        <v>0.0289211893115251</v>
+        <v>0.1610970578286697</v>
       </c>
       <c r="E8">
-        <v>0.1503082849510946</v>
+        <v>0.09402308881434251</v>
       </c>
       <c r="F8">
-        <v>0.3011347059269056</v>
+        <v>0.4980958578737642</v>
       </c>
       <c r="G8">
-        <v>0.0007634745431441381</v>
+        <v>0.2524928003928082</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0006544462127013873</v>
       </c>
       <c r="I8">
-        <v>0.2264717065003197</v>
+        <v>0.003351955721227817</v>
       </c>
       <c r="J8">
-        <v>0.3563860863515345</v>
+        <v>0.2553960397370503</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.279394058550043</v>
       </c>
       <c r="L8">
-        <v>0.4183751481727711</v>
+        <v>0.08678736672835896</v>
       </c>
       <c r="M8">
-        <v>31.10034054599447</v>
+        <v>3.467362478280336</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171675576026615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7865272026691486</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.018017771908021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02069500108778755</v>
+        <v>0.09001991307273727</v>
       </c>
       <c r="D9">
-        <v>0.03280011267018779</v>
+        <v>0.200004676510531</v>
       </c>
       <c r="E9">
-        <v>0.2167805416021196</v>
+        <v>0.1101147072692328</v>
       </c>
       <c r="F9">
-        <v>0.4177602162986247</v>
+        <v>0.5298765147658742</v>
       </c>
       <c r="G9">
-        <v>0.0007361129424192254</v>
+        <v>0.2633429615697267</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.755130972076358E-05</v>
       </c>
       <c r="I9">
-        <v>0.3181271560745316</v>
+        <v>0.007551608687951017</v>
       </c>
       <c r="J9">
-        <v>0.5253223187677634</v>
+        <v>0.2488034932615619</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2976795597698043</v>
       </c>
       <c r="L9">
-        <v>0.605235630618111</v>
+        <v>0.09657917920766934</v>
       </c>
       <c r="M9">
-        <v>43.70430938204612</v>
+        <v>4.611698180042481</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.649189430751704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.04844259161527</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.027926661992936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0274120205954631</v>
+        <v>0.1068963377570498</v>
       </c>
       <c r="D10">
-        <v>0.03793644455875977</v>
+        <v>0.2240686157175844</v>
       </c>
       <c r="E10">
-        <v>0.2823265870583072</v>
+        <v>0.1169529642547538</v>
       </c>
       <c r="F10">
-        <v>0.6009526028948216</v>
+        <v>0.5466800417034392</v>
       </c>
       <c r="G10">
-        <v>0.0007142941163767874</v>
+        <v>0.2686909616933875</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0008304396961191784</v>
       </c>
       <c r="I10">
-        <v>0.4566168504449735</v>
+        <v>0.01176861346279079</v>
       </c>
       <c r="J10">
-        <v>0.6889036421970189</v>
+        <v>0.2429326628357273</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3079118493926174</v>
       </c>
       <c r="L10">
-        <v>0.7813797306296948</v>
+        <v>0.09884234044113782</v>
       </c>
       <c r="M10">
-        <v>54.40566356736053</v>
+        <v>5.460962222642593</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.279969998138682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.22839544359968</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.027454511699034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0326516659045808</v>
+        <v>0.1187077531461966</v>
       </c>
       <c r="D11">
-        <v>0.04124905210306906</v>
+        <v>0.1933126370434479</v>
       </c>
       <c r="E11">
-        <v>0.3193782004584733</v>
+        <v>0.08235001258565333</v>
       </c>
       <c r="F11">
-        <v>0.7225376398856511</v>
+        <v>0.4755411198595425</v>
       </c>
       <c r="G11">
-        <v>0.0007034978821917776</v>
+        <v>0.2296026725527369</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01938816198166293</v>
       </c>
       <c r="I11">
-        <v>0.5475283047246648</v>
+        <v>0.01376369858870863</v>
       </c>
       <c r="J11">
-        <v>0.7804207305175197</v>
+        <v>0.2189244890301723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2774600138546077</v>
       </c>
       <c r="L11">
-        <v>0.8784128394002693</v>
+        <v>0.07092763574550354</v>
       </c>
       <c r="M11">
-        <v>59.90566050788198</v>
+        <v>5.937211945788761</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.676230535810589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.201344843765824</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8945054257790304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03512058613077329</v>
+        <v>0.1277006981473932</v>
       </c>
       <c r="D12">
-        <v>0.04272301509124787</v>
+        <v>0.1640976808860728</v>
       </c>
       <c r="E12">
-        <v>0.3350314243028549</v>
+        <v>0.06021302562957409</v>
       </c>
       <c r="F12">
-        <v>0.7767249570789332</v>
+        <v>0.417373853460731</v>
       </c>
       <c r="G12">
-        <v>0.0006992064079184312</v>
+        <v>0.1988776290758949</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0579592189558511</v>
       </c>
       <c r="I12">
-        <v>0.5878973162363295</v>
+        <v>0.01420606357619469</v>
       </c>
       <c r="J12">
-        <v>0.8189091926974044</v>
+        <v>0.201437801154654</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2525585658262521</v>
       </c>
       <c r="L12">
-        <v>0.9189524316601307</v>
+        <v>0.06450504703234827</v>
       </c>
       <c r="M12">
-        <v>62.12999420140488</v>
+        <v>6.164031331796537</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.849480259521044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.140413775221006</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7928165451236566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03456316515782731</v>
+        <v>0.1329616048766269</v>
       </c>
       <c r="D13">
-        <v>0.04239387138550654</v>
+        <v>0.1349712627869195</v>
       </c>
       <c r="E13">
-        <v>0.3315739920812817</v>
+        <v>0.04638751384062445</v>
       </c>
       <c r="F13">
-        <v>0.7646299515920987</v>
+        <v>0.363741645844847</v>
       </c>
       <c r="G13">
-        <v>0.000700141545924296</v>
+        <v>0.1710075590492011</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135191898824814</v>
       </c>
       <c r="I13">
-        <v>0.5788932474313597</v>
+        <v>0.01371002464520998</v>
       </c>
       <c r="J13">
-        <v>0.8104164195930679</v>
+        <v>0.1869890594299122</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2282291511091046</v>
       </c>
       <c r="L13">
-        <v>0.9100197793166132</v>
+        <v>0.07378037023847028</v>
       </c>
       <c r="M13">
-        <v>61.64342893661131</v>
+        <v>6.20942214061148</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.810960115411774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.05053130506613</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.7034468842721253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03284363863999573</v>
+        <v>0.1345298719541859</v>
       </c>
       <c r="D14">
-        <v>0.0413652465830836</v>
+        <v>0.1151762728461918</v>
       </c>
       <c r="E14">
-        <v>0.320628611475577</v>
+        <v>0.0416284713449</v>
       </c>
       <c r="F14">
-        <v>0.7268107212187331</v>
+        <v>0.3287470771129506</v>
       </c>
       <c r="G14">
-        <v>0.0007031495354042854</v>
+        <v>0.1529601650968004</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627127938170645</v>
       </c>
       <c r="I14">
-        <v>0.5507145728976752</v>
+        <v>0.01301914269813143</v>
       </c>
       <c r="J14">
-        <v>0.7834989111842248</v>
+        <v>0.178296286015879</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.211367773059397</v>
       </c>
       <c r="L14">
-        <v>0.8816605904028734</v>
+        <v>0.08947284131983579</v>
       </c>
       <c r="M14">
-        <v>60.08539807180875</v>
+        <v>6.158724652313367</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.689957915587115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9752020401129116</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6469191650135002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03186066141416433</v>
+        <v>0.1334459561692825</v>
       </c>
       <c r="D15">
-        <v>0.04076711687016399</v>
+        <v>0.1101962791156765</v>
       </c>
       <c r="E15">
-        <v>0.3141598942887924</v>
+        <v>0.04111907567835255</v>
       </c>
       <c r="F15">
-        <v>0.7048147602946244</v>
+        <v>0.3204587772492715</v>
       </c>
       <c r="G15">
-        <v>0.0007049623370398161</v>
+        <v>0.1486858775832616</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751558892463692</v>
       </c>
       <c r="I15">
-        <v>0.534307421847025</v>
+        <v>0.01274411129956299</v>
       </c>
       <c r="J15">
-        <v>0.7675676483858496</v>
+        <v>0.1765947203696925</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2068902287316234</v>
       </c>
       <c r="L15">
-        <v>0.8648410086699698</v>
+        <v>0.09428318023351778</v>
       </c>
       <c r="M15">
-        <v>59.15160896023127</v>
+        <v>6.106863222818561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.619167316450216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9508881899637558</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6342573969068468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02712566036917252</v>
+        <v>0.124090431609531</v>
       </c>
       <c r="D16">
-        <v>0.03774519144167954</v>
+        <v>0.1066407637283007</v>
       </c>
       <c r="E16">
-        <v>0.2800921282153226</v>
+        <v>0.04127567969009457</v>
       </c>
       <c r="F16">
-        <v>0.5939666241002186</v>
+        <v>0.3236182387593196</v>
       </c>
       <c r="G16">
-        <v>0.0007149765698005569</v>
+        <v>0.1512179030316716</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.162105576612646</v>
       </c>
       <c r="I16">
-        <v>0.451375960286839</v>
+        <v>0.01100936066383262</v>
       </c>
       <c r="J16">
-        <v>0.6833646326024763</v>
+        <v>0.1814751256678662</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2066371135252076</v>
       </c>
       <c r="L16">
-        <v>0.7754755492756544</v>
+        <v>0.09092496259225413</v>
       </c>
       <c r="M16">
-        <v>54.06256015665326</v>
+        <v>5.727995304237879</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.25681141828278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.8942898516912194</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6496420524405266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02487035876641386</v>
+        <v>0.1160570156440599</v>
       </c>
       <c r="D17">
-        <v>0.03618279378010669</v>
+        <v>0.114117295128743</v>
       </c>
       <c r="E17">
-        <v>0.2613535061158672</v>
+        <v>0.04313401408121287</v>
       </c>
       <c r="F17">
-        <v>0.537187607169848</v>
+        <v>0.3442822566894677</v>
       </c>
       <c r="G17">
-        <v>0.0007208551872346369</v>
+        <v>0.1626233611129919</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241852074810197</v>
       </c>
       <c r="I17">
-        <v>0.408689301077402</v>
+        <v>0.01009854731585058</v>
       </c>
       <c r="J17">
-        <v>0.6368167884985354</v>
+        <v>0.189821197043031</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2152921197619122</v>
       </c>
       <c r="L17">
-        <v>0.7257044960627326</v>
+        <v>0.07858516668040139</v>
       </c>
       <c r="M17">
-        <v>51.12943605493433</v>
+        <v>5.465290049188638</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.06655552583544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8904676082124041</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6911772265070795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02376461127463614</v>
+        <v>0.1096291711741628</v>
       </c>
       <c r="D18">
-        <v>0.03536943298945516</v>
+        <v>0.1330145723204055</v>
       </c>
       <c r="E18">
-        <v>0.251208352307053</v>
+        <v>0.05087747436667289</v>
       </c>
       <c r="F18">
-        <v>0.5079138805029118</v>
+        <v>0.385013954376646</v>
       </c>
       <c r="G18">
-        <v>0.000724160846719138</v>
+        <v>0.1845296661458988</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133637137095405</v>
       </c>
       <c r="I18">
-        <v>0.3866066239665784</v>
+        <v>0.009512941700627664</v>
       </c>
       <c r="J18">
-        <v>0.6115400919823628</v>
+        <v>0.202812756718032</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2339923845422973</v>
       </c>
       <c r="L18">
-        <v>0.6985558880373048</v>
+        <v>0.06551701506330687</v>
       </c>
       <c r="M18">
-        <v>49.49767985501813</v>
+        <v>5.273580759657364</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.966804676515466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.9319746811185254</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7647623105338255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02341953468419433</v>
+        <v>0.1025622587135615</v>
       </c>
       <c r="D19">
-        <v>0.03510705231362721</v>
+        <v>0.1621806479454762</v>
       </c>
       <c r="E19">
-        <v>0.2478698504416528</v>
+        <v>0.06910832487033147</v>
       </c>
       <c r="F19">
-        <v>0.4985266389775873</v>
+        <v>0.4403931609663374</v>
       </c>
       <c r="G19">
-        <v>0.0007252687709339001</v>
+        <v>0.2135220729462759</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02617605279406376</v>
       </c>
       <c r="I19">
-        <v>0.379512464754626</v>
+        <v>0.009688558874094255</v>
       </c>
       <c r="J19">
-        <v>0.6032099824459181</v>
+        <v>0.218549702686623</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2581846142298687</v>
       </c>
       <c r="L19">
-        <v>0.6895891042462807</v>
+        <v>0.06516911719808993</v>
       </c>
       <c r="M19">
-        <v>48.95362025519808</v>
+        <v>5.15366754792035</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.934531949546624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.00840834425739</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8591717671272932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02508973007424942</v>
+        <v>0.0985444462456968</v>
       </c>
       <c r="D20">
-        <v>0.03633987466651689</v>
+        <v>0.2184238031486245</v>
       </c>
       <c r="E20">
-        <v>0.2632797081456175</v>
+        <v>0.1150417451397381</v>
       </c>
       <c r="F20">
-        <v>0.5428673756465017</v>
+        <v>0.5377801672516895</v>
       </c>
       <c r="G20">
-        <v>0.0007202376353204176</v>
+        <v>0.2637151634050241</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005169485026601528</v>
       </c>
       <c r="I20">
-        <v>0.4129674073315144</v>
+        <v>0.01119693841301839</v>
       </c>
       <c r="J20">
-        <v>0.6416097774884832</v>
+        <v>0.2426153459547677</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3006807085740455</v>
       </c>
       <c r="L20">
-        <v>0.7308425180156348</v>
+        <v>0.09787407193555353</v>
       </c>
       <c r="M20">
-        <v>51.43568010819564</v>
+        <v>5.23777971895305</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.0857665340464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.180965788184125</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.01611479012675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03333355639058766</v>
+        <v>0.1109923579555243</v>
       </c>
       <c r="D21">
-        <v>0.0416604885313987</v>
+        <v>0.2446774138138181</v>
       </c>
       <c r="E21">
-        <v>0.3237927194599308</v>
+        <v>0.1281708380728261</v>
       </c>
       <c r="F21">
-        <v>0.7376678821468303</v>
+        <v>0.5670799335896746</v>
       </c>
       <c r="G21">
-        <v>0.0007022724257850615</v>
+        <v>0.2770340612800268</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001367732439959801</v>
       </c>
       <c r="I21">
-        <v>0.5588080366846455</v>
+        <v>0.01478403817815721</v>
       </c>
       <c r="J21">
-        <v>0.7912852442836709</v>
+        <v>0.2429356586069034</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3160440215072882</v>
       </c>
       <c r="L21">
-        <v>0.8898714965581433</v>
+        <v>0.1070916906886374</v>
       </c>
       <c r="M21">
-        <v>60.5385993401697</v>
+        <v>5.873852717122816</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.724784615583019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.33852818757039</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.045386567395411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04174766675802744</v>
+        <v>0.120992393870111</v>
       </c>
       <c r="D22">
-        <v>0.04651222545282252</v>
+        <v>0.2589706950067665</v>
       </c>
       <c r="E22">
-        <v>0.3734801671469867</v>
+        <v>0.1341396714054106</v>
       </c>
       <c r="F22">
-        <v>0.9154237672070593</v>
+        <v>0.5838619171232793</v>
       </c>
       <c r="G22">
-        <v>0.0006892582240190173</v>
+        <v>0.2852101389971509</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002236622785574682</v>
       </c>
       <c r="I22">
-        <v>0.6909218489528755</v>
+        <v>0.01710959630936326</v>
       </c>
       <c r="J22">
-        <v>0.9130493220573044</v>
+        <v>0.2429193710894708</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3261949663608661</v>
       </c>
       <c r="L22">
-        <v>1.017520998603729</v>
+        <v>0.1107167433434029</v>
       </c>
       <c r="M22">
-        <v>67.37183546377486</v>
+        <v>6.295080335441071</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.285940037691432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.435089053955551</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.062916969238074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03688259898048329</v>
+        <v>0.1171830998378169</v>
       </c>
       <c r="D23">
-        <v>0.04375128559312458</v>
+        <v>0.2509840702276307</v>
       </c>
       <c r="E23">
-        <v>0.3457022355968746</v>
+        <v>0.1309085865874025</v>
       </c>
       <c r="F23">
-        <v>0.814475623504066</v>
+        <v>0.5762979818463307</v>
       </c>
       <c r="G23">
-        <v>0.00069636410857018</v>
+        <v>0.2819876207442604</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001751733630616759</v>
       </c>
       <c r="I23">
-        <v>0.6159782606791566</v>
+        <v>0.01560843148698776</v>
       </c>
       <c r="J23">
-        <v>0.8450914748222687</v>
+        <v>0.243508773120567</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3223698122384491</v>
       </c>
       <c r="L23">
-        <v>0.9464471455293619</v>
+        <v>0.1088442681178279</v>
       </c>
       <c r="M23">
-        <v>63.61533016679778</v>
+        <v>6.070494244581482</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.969196226306934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.383413012530596</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.057197125806013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02498996866155068</v>
+        <v>0.1001014884871836</v>
       </c>
       <c r="D24">
-        <v>0.03626859900434454</v>
+        <v>0.2214756389114143</v>
       </c>
       <c r="E24">
-        <v>0.26240695333275</v>
+        <v>0.1187949616860209</v>
       </c>
       <c r="F24">
-        <v>0.5402892279074223</v>
+        <v>0.5469081235042594</v>
       </c>
       <c r="G24">
-        <v>0.0007205170561108604</v>
+        <v>0.2691994104450188</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004309860904714302</v>
       </c>
       <c r="I24">
-        <v>0.4110257420812431</v>
+        <v>0.01079337409238779</v>
       </c>
       <c r="J24">
-        <v>0.6394383312955227</v>
+        <v>0.2455398196910465</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3060266542551062</v>
       </c>
       <c r="L24">
-        <v>0.7285151405036032</v>
+        <v>0.1016463006437007</v>
       </c>
       <c r="M24">
-        <v>51.29706054008795</v>
+        <v>5.219815337200203</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.077051724176215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.188144432670754</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.033862482461373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01946275025208166</v>
+        <v>0.08137900720201685</v>
       </c>
       <c r="D25">
-        <v>0.0314555529421483</v>
+        <v>0.1899441023243469</v>
       </c>
       <c r="E25">
-        <v>0.1966772858169108</v>
+        <v>0.1058131872010506</v>
       </c>
       <c r="F25">
-        <v>0.3730666790047579</v>
+        <v>0.5184595234496427</v>
       </c>
       <c r="G25">
-        <v>0.0007437013454592578</v>
+        <v>0.2580979798210734</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.622926594759051E-06</v>
       </c>
       <c r="I25">
-        <v>0.2837431997019237</v>
+        <v>0.006573131381395036</v>
       </c>
       <c r="J25">
-        <v>0.4746201537221992</v>
+        <v>0.2493374872332268</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2900020857429766</v>
       </c>
       <c r="L25">
-        <v>0.5497737114135646</v>
+        <v>0.09385015589996115</v>
       </c>
       <c r="M25">
-        <v>40.11426002680025</v>
+        <v>4.302099099138616</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.482203592919944</v>
+        <v>0.9777988689919681</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.017738166990796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07095607872662413</v>
+        <v>0.04565887703297733</v>
       </c>
       <c r="D2">
-        <v>0.1660960923156694</v>
+        <v>0.1723546652365968</v>
       </c>
       <c r="E2">
-        <v>0.09620134839433092</v>
+        <v>0.09707810857691612</v>
       </c>
       <c r="F2">
-        <v>0.5035867420133542</v>
+        <v>0.4775513616705354</v>
       </c>
       <c r="G2">
-        <v>0.2548998440746999</v>
+        <v>0.2169783672425751</v>
       </c>
       <c r="H2">
-        <v>0.0004459700724610549</v>
+        <v>0.0004680843045857808</v>
       </c>
       <c r="I2">
-        <v>0.003617189450226821</v>
+        <v>0.003822997249504745</v>
       </c>
       <c r="J2">
-        <v>0.2549192925451962</v>
+        <v>0.2760613122277533</v>
       </c>
       <c r="K2">
-        <v>0.2833801221469621</v>
+        <v>0.2524472369162005</v>
       </c>
       <c r="L2">
-        <v>0.08821703349990884</v>
+        <v>0.148996344805564</v>
       </c>
       <c r="M2">
-        <v>3.625962127293064</v>
+        <v>0.05576078655360739</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.08726593979713826</v>
       </c>
       <c r="O2">
-        <v>0.8226059962655086</v>
+        <v>3.622756197772333</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.022225920432746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8249613878696564</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9537286801951694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06160236035525202</v>
+        <v>0.04086289980976687</v>
       </c>
       <c r="D3">
-        <v>0.1505224699311185</v>
+        <v>0.1558705207577731</v>
       </c>
       <c r="E3">
-        <v>0.08975905952164354</v>
+        <v>0.09071490755112066</v>
       </c>
       <c r="F3">
-        <v>0.4928337913935579</v>
+        <v>0.470464107210546</v>
       </c>
       <c r="G3">
-        <v>0.2521592323178226</v>
+        <v>0.2176899115178372</v>
       </c>
       <c r="H3">
-        <v>0.001160385058270319</v>
+        <v>0.001153010968746426</v>
       </c>
       <c r="I3">
-        <v>0.002280249956168934</v>
+        <v>0.002611170310500732</v>
       </c>
       <c r="J3">
-        <v>0.2585478922430013</v>
+        <v>0.2787544491584057</v>
       </c>
       <c r="K3">
-        <v>0.2772780073997794</v>
+        <v>0.2499899111473525</v>
       </c>
       <c r="L3">
-        <v>0.08426768195786138</v>
+        <v>0.1529892973728124</v>
       </c>
       <c r="M3">
-        <v>3.166393272607934</v>
+        <v>0.05088689105932076</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.08374388862817028</v>
       </c>
       <c r="O3">
-        <v>0.7175042339985183</v>
+        <v>3.164995807767923</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.023712739176602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7194992299966572</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9635839037265299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05570896655211044</v>
+        <v>0.03777360102443339</v>
       </c>
       <c r="D4">
-        <v>0.1410187632257873</v>
+        <v>0.1458303786355657</v>
       </c>
       <c r="E4">
-        <v>0.08580796384726952</v>
+        <v>0.08681902335609948</v>
       </c>
       <c r="F4">
-        <v>0.4868089059677274</v>
+        <v>0.466591018675949</v>
       </c>
       <c r="G4">
-        <v>0.25093647399828</v>
+        <v>0.218589852944838</v>
       </c>
       <c r="H4">
-        <v>0.001789061100450184</v>
+        <v>0.001746704755330009</v>
       </c>
       <c r="I4">
-        <v>0.001633973934970889</v>
+        <v>0.00200478182235786</v>
       </c>
       <c r="J4">
-        <v>0.2610862471161752</v>
+        <v>0.2805536791240328</v>
       </c>
       <c r="K4">
-        <v>0.2737691721333562</v>
+        <v>0.2486083228064437</v>
       </c>
       <c r="L4">
-        <v>0.08181561204426657</v>
+        <v>0.1554907740748277</v>
       </c>
       <c r="M4">
-        <v>2.883599347060311</v>
+        <v>0.04844504895672408</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08155656427006264</v>
       </c>
       <c r="O4">
-        <v>0.6528924402560676</v>
+        <v>2.883247967123879</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.026243104194748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6546515196888265</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9709540844861522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05289775679273845</v>
+        <v>0.03617289340105145</v>
       </c>
       <c r="D5">
-        <v>0.1372455223135916</v>
+        <v>0.1418441305893339</v>
       </c>
       <c r="E5">
-        <v>0.08420803998718895</v>
+        <v>0.08524345905133046</v>
       </c>
       <c r="F5">
-        <v>0.4841158722041996</v>
+        <v>0.4647722219588459</v>
       </c>
       <c r="G5">
-        <v>0.2502387068883394</v>
+        <v>0.2187864397060864</v>
       </c>
       <c r="H5">
-        <v>0.002092036887898052</v>
+        <v>0.002031318072009847</v>
       </c>
       <c r="I5">
-        <v>0.001470007587589528</v>
+        <v>0.001860720284912354</v>
       </c>
       <c r="J5">
-        <v>0.262034186915983</v>
+        <v>0.2811639917395965</v>
       </c>
       <c r="K5">
-        <v>0.27198212257451</v>
+        <v>0.2477008707225963</v>
       </c>
       <c r="L5">
-        <v>0.08079204385800054</v>
+        <v>0.1563330771745299</v>
       </c>
       <c r="M5">
-        <v>2.768133322838366</v>
+        <v>0.04749199046694663</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08064232453519082</v>
       </c>
       <c r="O5">
-        <v>0.6265721708814809</v>
+        <v>2.76819674684026</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.026668017677309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6282313635722261</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9733545072811296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05197482879573556</v>
+        <v>0.03553361563404422</v>
       </c>
       <c r="D6">
-        <v>0.136725120332656</v>
+        <v>0.141288578540582</v>
       </c>
       <c r="E6">
-        <v>0.08395421952563353</v>
+        <v>0.08499396350336852</v>
       </c>
       <c r="F6">
-        <v>0.4832159298983001</v>
+        <v>0.4640423090485513</v>
       </c>
       <c r="G6">
-        <v>0.2497510666645866</v>
+        <v>0.2184828616173036</v>
       </c>
       <c r="H6">
-        <v>0.002146656077784415</v>
+        <v>0.002082518578784942</v>
       </c>
       <c r="I6">
-        <v>0.001523561206978385</v>
+        <v>0.00193370679224536</v>
       </c>
       <c r="J6">
-        <v>0.2619980306090142</v>
+        <v>0.2810738650957703</v>
       </c>
       <c r="K6">
-        <v>0.2711828261301044</v>
+        <v>0.2470948733795062</v>
       </c>
       <c r="L6">
-        <v>0.08060079830672606</v>
+        <v>0.1562430810492899</v>
       </c>
       <c r="M6">
-        <v>2.748879462845053</v>
+        <v>0.04722504443502373</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08047022137324689</v>
       </c>
       <c r="O6">
-        <v>0.6222409604223103</v>
+        <v>2.749013953221379</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.025544557649567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6238825980208915</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9726476665180144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05442369403021274</v>
+        <v>0.03686061926800477</v>
       </c>
       <c r="D7">
-        <v>0.1412559844143715</v>
+        <v>0.1462397496112402</v>
       </c>
       <c r="E7">
-        <v>0.08581896442452575</v>
+        <v>0.08685037483537883</v>
       </c>
       <c r="F7">
-        <v>0.485513855000768</v>
+        <v>0.4646641678382153</v>
       </c>
       <c r="G7">
-        <v>0.2498937918355892</v>
+        <v>0.2194522383951423</v>
       </c>
       <c r="H7">
-        <v>0.001796922491326125</v>
+        <v>0.001756359807298602</v>
       </c>
       <c r="I7">
-        <v>0.001830239912450793</v>
+        <v>0.002241594978518613</v>
       </c>
       <c r="J7">
-        <v>0.2605589477230978</v>
+        <v>0.2772042305315807</v>
       </c>
       <c r="K7">
-        <v>0.2723618163930439</v>
+        <v>0.2469192480790738</v>
       </c>
       <c r="L7">
-        <v>0.08174530452268414</v>
+        <v>0.1546792229540657</v>
       </c>
       <c r="M7">
-        <v>2.881849725675892</v>
+        <v>0.04798010426725163</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08145679326685951</v>
       </c>
       <c r="O7">
-        <v>0.6526488375016584</v>
+        <v>2.88139670341252</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.022926290487348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6544708265717034</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.966079021428726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06608962493395154</v>
+        <v>0.04310855234786004</v>
       </c>
       <c r="D8">
-        <v>0.1610970578286697</v>
+        <v>0.1676268039331603</v>
       </c>
       <c r="E8">
-        <v>0.09402308881434251</v>
+        <v>0.09499467706562825</v>
       </c>
       <c r="F8">
-        <v>0.4980958578737642</v>
+        <v>0.4710883209900771</v>
       </c>
       <c r="G8">
-        <v>0.2524928003928082</v>
+        <v>0.2219131147407012</v>
       </c>
       <c r="H8">
-        <v>0.0006544462127013873</v>
+        <v>0.0006742918303382917</v>
       </c>
       <c r="I8">
-        <v>0.003351955721227817</v>
+        <v>0.003651777814959623</v>
       </c>
       <c r="J8">
-        <v>0.2553960397370503</v>
+        <v>0.2671644423315058</v>
       </c>
       <c r="K8">
-        <v>0.279394058550043</v>
+        <v>0.248530573050747</v>
       </c>
       <c r="L8">
-        <v>0.08678736672835896</v>
+        <v>0.1489973318673847</v>
       </c>
       <c r="M8">
-        <v>3.467362478280336</v>
+        <v>0.0530196331659365</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.08587909210937283</v>
       </c>
       <c r="O8">
-        <v>0.7865272026691486</v>
+        <v>3.46442249816613</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.018017771908021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7889789824437159</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.946799359082874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09001991307273727</v>
+        <v>0.05557191304146158</v>
       </c>
       <c r="D9">
-        <v>0.200004676510531</v>
+        <v>0.2091057287353095</v>
       </c>
       <c r="E9">
-        <v>0.1101147072692328</v>
+        <v>0.110947211385934</v>
       </c>
       <c r="F9">
-        <v>0.5298765147658742</v>
+        <v>0.4924228164488369</v>
       </c>
       <c r="G9">
-        <v>0.2633429615697267</v>
+        <v>0.2257326090303664</v>
       </c>
       <c r="H9">
-        <v>2.755130972076358E-05</v>
+        <v>1.118669345978596E-05</v>
       </c>
       <c r="I9">
-        <v>0.007551608687951017</v>
+        <v>0.007248769805737965</v>
       </c>
       <c r="J9">
-        <v>0.2488034932615619</v>
+        <v>0.2594846306676359</v>
       </c>
       <c r="K9">
-        <v>0.2976795597698043</v>
+        <v>0.25655166332999</v>
       </c>
       <c r="L9">
-        <v>0.09657917920766934</v>
+        <v>0.1399930082989975</v>
       </c>
       <c r="M9">
-        <v>4.611698180042481</v>
+        <v>0.0684505599375278</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.09458759198544442</v>
       </c>
       <c r="O9">
-        <v>1.04844259161527</v>
+        <v>4.603659642226262</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.027926661992936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.051746613195171</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9321881985883209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1068963377570498</v>
+        <v>0.06513623704380223</v>
       </c>
       <c r="D10">
-        <v>0.2240686157175844</v>
+        <v>0.2359821574531935</v>
       </c>
       <c r="E10">
-        <v>0.1169529642547538</v>
+        <v>0.1177719687099703</v>
       </c>
       <c r="F10">
-        <v>0.5466800417034392</v>
+        <v>0.4979595593516777</v>
       </c>
       <c r="G10">
-        <v>0.2686909616933875</v>
+        <v>0.2375209903438957</v>
       </c>
       <c r="H10">
-        <v>0.0008304396961191784</v>
+        <v>0.0006838740860928283</v>
       </c>
       <c r="I10">
-        <v>0.01176861346279079</v>
+        <v>0.01078867844473574</v>
       </c>
       <c r="J10">
-        <v>0.2429326628357273</v>
+        <v>0.2380251465412329</v>
       </c>
       <c r="K10">
-        <v>0.3079118493926174</v>
+        <v>0.2572049808723449</v>
       </c>
       <c r="L10">
-        <v>0.09884234044113782</v>
+        <v>0.1315078305057149</v>
       </c>
       <c r="M10">
-        <v>5.460962222642593</v>
+        <v>0.08010733498703004</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.09599407126825099</v>
       </c>
       <c r="O10">
-        <v>1.22839544359968</v>
+        <v>5.448033647307057</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.027454511699034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.232536000712912</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9044142911107116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1187077531461966</v>
+        <v>0.07696937266987902</v>
       </c>
       <c r="D11">
-        <v>0.1933126370434479</v>
+        <v>0.2059429365133525</v>
       </c>
       <c r="E11">
-        <v>0.08235001258565333</v>
+        <v>0.08267922480413148</v>
       </c>
       <c r="F11">
-        <v>0.4755411198595425</v>
+        <v>0.424412270686723</v>
       </c>
       <c r="G11">
-        <v>0.2296026725527369</v>
+        <v>0.2239314701398953</v>
       </c>
       <c r="H11">
-        <v>0.01938816198166293</v>
+        <v>0.01921827501998763</v>
       </c>
       <c r="I11">
-        <v>0.01376369858870863</v>
+        <v>0.01254689475330828</v>
       </c>
       <c r="J11">
-        <v>0.2189244890301723</v>
+        <v>0.196011329549993</v>
       </c>
       <c r="K11">
-        <v>0.2774600138546077</v>
+        <v>0.2265371904979432</v>
       </c>
       <c r="L11">
-        <v>0.07092763574550354</v>
+        <v>0.1172145094274128</v>
       </c>
       <c r="M11">
-        <v>5.937211945788761</v>
+        <v>0.07284266076135992</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06846778929600639</v>
       </c>
       <c r="O11">
-        <v>1.201344843765824</v>
+        <v>5.921401852747977</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8945054257790304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.206096670626152</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7663095244564317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1277006981473932</v>
+        <v>0.08691444396032466</v>
       </c>
       <c r="D12">
-        <v>0.1640976808860728</v>
+        <v>0.1759265357272852</v>
       </c>
       <c r="E12">
-        <v>0.06021302562957409</v>
+        <v>0.05998684870948523</v>
       </c>
       <c r="F12">
-        <v>0.417373853460731</v>
+        <v>0.3694693651212688</v>
       </c>
       <c r="G12">
-        <v>0.1988776290758949</v>
+        <v>0.2046148383390971</v>
       </c>
       <c r="H12">
-        <v>0.0579592189558511</v>
+        <v>0.05779742308486391</v>
       </c>
       <c r="I12">
-        <v>0.01420606357619469</v>
+        <v>0.01288115114601496</v>
       </c>
       <c r="J12">
-        <v>0.201437801154654</v>
+        <v>0.1786471674494408</v>
       </c>
       <c r="K12">
-        <v>0.2525585658262521</v>
+        <v>0.2048219315185769</v>
       </c>
       <c r="L12">
-        <v>0.06450504703234827</v>
+        <v>0.1086942974271174</v>
       </c>
       <c r="M12">
-        <v>6.164031331796537</v>
+        <v>0.0656199523320744</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06270639560540836</v>
       </c>
       <c r="O12">
-        <v>1.140413775221006</v>
+        <v>6.147235597189592</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7928165451236566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.145263654724658</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6730999126907733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1329616048766269</v>
+        <v>0.09397563439486589</v>
       </c>
       <c r="D13">
-        <v>0.1349712627869195</v>
+        <v>0.1446497860343072</v>
       </c>
       <c r="E13">
-        <v>0.04638751384062445</v>
+        <v>0.04561160368422712</v>
       </c>
       <c r="F13">
-        <v>0.363741645844847</v>
+        <v>0.324144703228427</v>
       </c>
       <c r="G13">
-        <v>0.1710075590492011</v>
+        <v>0.174844405673916</v>
       </c>
       <c r="H13">
-        <v>0.1135191898824814</v>
+        <v>0.1133921572692458</v>
       </c>
       <c r="I13">
-        <v>0.01371002464520998</v>
+        <v>0.01247657625220899</v>
       </c>
       <c r="J13">
-        <v>0.1869890594299122</v>
+        <v>0.1742202534892545</v>
       </c>
       <c r="K13">
-        <v>0.2282291511091046</v>
+        <v>0.1872230218941375</v>
       </c>
       <c r="L13">
-        <v>0.07378037023847028</v>
+        <v>0.1031000864699028</v>
       </c>
       <c r="M13">
-        <v>6.20942214061148</v>
+        <v>0.05772224794768377</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07275014998334939</v>
       </c>
       <c r="O13">
-        <v>1.05053130506613</v>
+        <v>6.193428254077162</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7034468842721253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.054934726346154</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6047173484300146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1345298719541859</v>
+        <v>0.09727530052548161</v>
       </c>
       <c r="D14">
-        <v>0.1151762728461918</v>
+        <v>0.1229354405107728</v>
       </c>
       <c r="E14">
-        <v>0.0416284713449</v>
+        <v>0.04054187002653153</v>
       </c>
       <c r="F14">
-        <v>0.3287470771129506</v>
+        <v>0.2965842816758482</v>
       </c>
       <c r="G14">
-        <v>0.1529601650968004</v>
+        <v>0.1509449957915834</v>
       </c>
       <c r="H14">
-        <v>0.1627127938170645</v>
+        <v>0.1626174165166816</v>
       </c>
       <c r="I14">
-        <v>0.01301914269813143</v>
+        <v>0.01195056793229377</v>
       </c>
       <c r="J14">
-        <v>0.178296286015879</v>
+        <v>0.1750308713316358</v>
       </c>
       <c r="K14">
-        <v>0.211367773059397</v>
+        <v>0.1763734017816816</v>
       </c>
       <c r="L14">
-        <v>0.08947284131983579</v>
+        <v>0.100224518918175</v>
       </c>
       <c r="M14">
-        <v>6.158724652313367</v>
+        <v>0.05188253686814548</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08893677939029487</v>
       </c>
       <c r="O14">
-        <v>0.9752020401129116</v>
+        <v>6.144088440640132</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6469191650135002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.979065298717039</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.566891067288708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1334459561692825</v>
+        <v>0.09687092792505325</v>
       </c>
       <c r="D15">
-        <v>0.1101962791156765</v>
+        <v>0.1173078827440577</v>
       </c>
       <c r="E15">
-        <v>0.04111907567835255</v>
+        <v>0.03998965872635721</v>
       </c>
       <c r="F15">
-        <v>0.3204587772492715</v>
+        <v>0.2908535045591734</v>
       </c>
       <c r="G15">
-        <v>0.1486858775832616</v>
+        <v>0.1435379357462381</v>
       </c>
       <c r="H15">
-        <v>0.1751558892463692</v>
+        <v>0.175074289064824</v>
       </c>
       <c r="I15">
-        <v>0.01274411129956299</v>
+        <v>0.01177945938858027</v>
       </c>
       <c r="J15">
-        <v>0.1765947203696925</v>
+        <v>0.1768775213985787</v>
       </c>
       <c r="K15">
-        <v>0.2068902287316234</v>
+        <v>0.1739990999948517</v>
       </c>
       <c r="L15">
-        <v>0.09428318023351778</v>
+        <v>0.0998588381885348</v>
       </c>
       <c r="M15">
-        <v>6.106863222818561</v>
+        <v>0.05015025393764816</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09385760123551634</v>
       </c>
       <c r="O15">
-        <v>0.9508881899637558</v>
+        <v>6.092922511065808</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6342573969068468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9545232911077264</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5606702161615331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.124090431609531</v>
+        <v>0.08922058944590106</v>
       </c>
       <c r="D16">
-        <v>0.1066407637283007</v>
+        <v>0.1120783417445494</v>
       </c>
       <c r="E16">
-        <v>0.04127567969009457</v>
+        <v>0.04037211625301279</v>
       </c>
       <c r="F16">
-        <v>0.3236182387593196</v>
+        <v>0.3006148296815212</v>
       </c>
       <c r="G16">
-        <v>0.1512179030316716</v>
+        <v>0.1319331398977681</v>
       </c>
       <c r="H16">
-        <v>0.162105576612646</v>
+        <v>0.1620827089566461</v>
       </c>
       <c r="I16">
-        <v>0.01100936066383262</v>
+        <v>0.01043552915674173</v>
       </c>
       <c r="J16">
-        <v>0.1814751256678662</v>
+        <v>0.1948665571927393</v>
       </c>
       <c r="K16">
-        <v>0.2066371135252076</v>
+        <v>0.1789583559569543</v>
       </c>
       <c r="L16">
-        <v>0.09092496259225413</v>
+        <v>0.1040376864841424</v>
       </c>
       <c r="M16">
-        <v>5.727995304237879</v>
+        <v>0.04814314146334908</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09053301917973045</v>
       </c>
       <c r="O16">
-        <v>0.8942898516912194</v>
+        <v>5.717234038237109</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6496420524405266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8971170699042545</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5923175193615862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1160570156440599</v>
+        <v>0.08183607434185092</v>
       </c>
       <c r="D17">
-        <v>0.114117295128743</v>
+        <v>0.1193101259936498</v>
       </c>
       <c r="E17">
-        <v>0.04313401408121287</v>
+        <v>0.04248885103897981</v>
       </c>
       <c r="F17">
-        <v>0.3442822566894677</v>
+        <v>0.322328552980494</v>
       </c>
       <c r="G17">
-        <v>0.1626233611129919</v>
+        <v>0.1366168067128157</v>
       </c>
       <c r="H17">
-        <v>0.1241852074810197</v>
+        <v>0.1241858370073459</v>
       </c>
       <c r="I17">
-        <v>0.01009854731585058</v>
+        <v>0.009722175625965335</v>
       </c>
       <c r="J17">
-        <v>0.189821197043031</v>
+        <v>0.2092447051900059</v>
       </c>
       <c r="K17">
-        <v>0.2152921197619122</v>
+        <v>0.1882407653597404</v>
       </c>
       <c r="L17">
-        <v>0.07858516668040139</v>
+        <v>0.108934744641509</v>
       </c>
       <c r="M17">
-        <v>5.465290049188638</v>
+        <v>0.04942648250568382</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07806667640991449</v>
       </c>
       <c r="O17">
-        <v>0.8904676082124041</v>
+        <v>5.456009411057209</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6911772265070795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8930440646736528</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6362273335951514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1096291711741628</v>
+        <v>0.07476990761823288</v>
       </c>
       <c r="D18">
-        <v>0.1330145723204055</v>
+        <v>0.1388655828776422</v>
       </c>
       <c r="E18">
-        <v>0.05087747436667289</v>
+        <v>0.05055261660619603</v>
       </c>
       <c r="F18">
-        <v>0.385013954376646</v>
+        <v>0.3604460876045721</v>
       </c>
       <c r="G18">
-        <v>0.1845296661458988</v>
+        <v>0.1532190777546703</v>
       </c>
       <c r="H18">
-        <v>0.07133637137095405</v>
+        <v>0.07134008286231364</v>
       </c>
       <c r="I18">
-        <v>0.009512941700627664</v>
+        <v>0.009163692662445655</v>
       </c>
       <c r="J18">
-        <v>0.202812756718032</v>
+        <v>0.2239180857690002</v>
       </c>
       <c r="K18">
-        <v>0.2339923845422973</v>
+        <v>0.2042561552532192</v>
       </c>
       <c r="L18">
-        <v>0.06551701506330687</v>
+        <v>0.1157730092586107</v>
       </c>
       <c r="M18">
-        <v>5.273580759657364</v>
+        <v>0.05427807187122369</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06468991829043702</v>
       </c>
       <c r="O18">
-        <v>0.9319746811185254</v>
+        <v>5.264786827622402</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7647623105338255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.9346180227717085</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7028831604242924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1025622587135615</v>
+        <v>0.06661244473667693</v>
       </c>
       <c r="D19">
-        <v>0.1621806479454762</v>
+        <v>0.169348865367084</v>
       </c>
       <c r="E19">
-        <v>0.06910832487033147</v>
+        <v>0.06917281582018653</v>
       </c>
       <c r="F19">
-        <v>0.4403931609663374</v>
+        <v>0.4106932114650732</v>
       </c>
       <c r="G19">
-        <v>0.2135220729462759</v>
+        <v>0.1772050959030551</v>
       </c>
       <c r="H19">
-        <v>0.02617605279406376</v>
+        <v>0.02616310365542773</v>
       </c>
       <c r="I19">
-        <v>0.009688558874094255</v>
+        <v>0.00934990943659475</v>
       </c>
       <c r="J19">
-        <v>0.218549702686623</v>
+        <v>0.2385601462876465</v>
       </c>
       <c r="K19">
-        <v>0.2581846142298687</v>
+        <v>0.223649406729848</v>
       </c>
       <c r="L19">
-        <v>0.06516911719808993</v>
+        <v>0.1233057154618464</v>
       </c>
       <c r="M19">
-        <v>5.15366754792035</v>
+        <v>0.06130064051141559</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06384453440798321</v>
       </c>
       <c r="O19">
-        <v>1.00840834425739</v>
+        <v>5.14466394732807</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8591717671272932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.011314343683587</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7841765470267745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0985444462456968</v>
+        <v>0.05926407410364476</v>
       </c>
       <c r="D20">
-        <v>0.2184238031486245</v>
+        <v>0.2289383564921508</v>
       </c>
       <c r="E20">
-        <v>0.1150417451397381</v>
+        <v>0.1157838284503789</v>
       </c>
       <c r="F20">
-        <v>0.5377801672516895</v>
+        <v>0.4949067594889485</v>
       </c>
       <c r="G20">
-        <v>0.2637151634050241</v>
+        <v>0.2244864621886578</v>
       </c>
       <c r="H20">
-        <v>0.0005169485026601528</v>
+        <v>0.000416917895588842</v>
       </c>
       <c r="I20">
-        <v>0.01119693841301839</v>
+        <v>0.01060185890632326</v>
       </c>
       <c r="J20">
-        <v>0.2426153459547677</v>
+        <v>0.2508719458230786</v>
       </c>
       <c r="K20">
-        <v>0.3006807085740455</v>
+        <v>0.2546427586488704</v>
       </c>
       <c r="L20">
-        <v>0.09787407193555353</v>
+        <v>0.1328290294500931</v>
       </c>
       <c r="M20">
-        <v>5.23777971895305</v>
+        <v>0.07596937518119518</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.0953677171332501</v>
       </c>
       <c r="O20">
-        <v>1.180965788184125</v>
+        <v>5.226650277034935</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.01611479012675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.184653669887226</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9079296930544842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1109923579555243</v>
+        <v>0.06794822009248236</v>
       </c>
       <c r="D21">
-        <v>0.2446774138138181</v>
+        <v>0.2613383196844978</v>
       </c>
       <c r="E21">
-        <v>0.1281708380728261</v>
+        <v>0.1294764197208522</v>
       </c>
       <c r="F21">
-        <v>0.5670799335896746</v>
+        <v>0.5005531495849525</v>
       </c>
       <c r="G21">
-        <v>0.2770340612800268</v>
+        <v>0.2795688379591184</v>
       </c>
       <c r="H21">
-        <v>0.001367732439959801</v>
+        <v>0.001090047779702674</v>
       </c>
       <c r="I21">
-        <v>0.01478403817815721</v>
+        <v>0.01342295830885565</v>
       </c>
       <c r="J21">
-        <v>0.2429356586069034</v>
+        <v>0.1998692098423085</v>
       </c>
       <c r="K21">
-        <v>0.3160440215072882</v>
+        <v>0.2532805650337089</v>
       </c>
       <c r="L21">
-        <v>0.1070916906886374</v>
+        <v>0.1259183312517465</v>
       </c>
       <c r="M21">
-        <v>5.873852717122816</v>
+        <v>0.08467480402365979</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.103205650773301</v>
       </c>
       <c r="O21">
-        <v>1.33852818757039</v>
+        <v>5.856401417983705</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.045386567395411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.344139005082695</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8785194792817208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.120992393870111</v>
+        <v>0.07544789217746484</v>
       </c>
       <c r="D22">
-        <v>0.2589706950067665</v>
+        <v>0.2799532036832204</v>
       </c>
       <c r="E22">
-        <v>0.1341396714054106</v>
+        <v>0.1358535375539311</v>
       </c>
       <c r="F22">
-        <v>0.5838619171232793</v>
+        <v>0.5009328694779072</v>
       </c>
       <c r="G22">
-        <v>0.2852101389971509</v>
+        <v>0.3222387813193706</v>
       </c>
       <c r="H22">
-        <v>0.002236622785574682</v>
+        <v>0.001807714927110626</v>
       </c>
       <c r="I22">
-        <v>0.01710959630936326</v>
+        <v>0.01511032453802752</v>
       </c>
       <c r="J22">
-        <v>0.2429193710894708</v>
+        <v>0.1742297374309736</v>
       </c>
       <c r="K22">
-        <v>0.3261949663608661</v>
+        <v>0.2518754345728205</v>
       </c>
       <c r="L22">
-        <v>0.1107167433434029</v>
+        <v>0.1213799750487823</v>
       </c>
       <c r="M22">
-        <v>6.295080335441071</v>
+        <v>0.0904445243101577</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1059462057096745</v>
       </c>
       <c r="O22">
-        <v>1.435089053955551</v>
+        <v>6.273208493800439</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.062916969238074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.442031116321786</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8554146598165175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1171830998378169</v>
+        <v>0.07227434673423261</v>
       </c>
       <c r="D23">
-        <v>0.2509840702276307</v>
+        <v>0.2691309200975951</v>
       </c>
       <c r="E23">
-        <v>0.1309085865874025</v>
+        <v>0.1323326390950363</v>
       </c>
       <c r="F23">
-        <v>0.5762979818463307</v>
+        <v>0.503828471255666</v>
       </c>
       <c r="G23">
-        <v>0.2819876207442604</v>
+        <v>0.2944969265383861</v>
       </c>
       <c r="H23">
-        <v>0.001751733630616759</v>
+        <v>0.001409761830786338</v>
       </c>
       <c r="I23">
-        <v>0.01560843148698776</v>
+        <v>0.01390266226368997</v>
       </c>
       <c r="J23">
-        <v>0.243508773120567</v>
+        <v>0.1908537224045368</v>
       </c>
       <c r="K23">
-        <v>0.3223698122384491</v>
+        <v>0.2550240883838981</v>
       </c>
       <c r="L23">
-        <v>0.1088442681178279</v>
+        <v>0.1245873258004515</v>
       </c>
       <c r="M23">
-        <v>6.070494244581482</v>
+        <v>0.08836138835290441</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1046161281829896</v>
       </c>
       <c r="O23">
-        <v>1.383413012530596</v>
+        <v>6.05127715607091</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.057197125806013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.389466868354333</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8753830935129088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1001014884871836</v>
+        <v>0.06020667238372823</v>
       </c>
       <c r="D24">
-        <v>0.2214756389114143</v>
+        <v>0.2321155581024783</v>
       </c>
       <c r="E24">
-        <v>0.1187949616860209</v>
+        <v>0.1195848179813765</v>
       </c>
       <c r="F24">
-        <v>0.5469081235042594</v>
+        <v>0.5033405933584518</v>
       </c>
       <c r="G24">
-        <v>0.2691994104450188</v>
+        <v>0.2289774548500887</v>
       </c>
       <c r="H24">
-        <v>0.0004309860904714302</v>
+        <v>0.0003265694333640656</v>
       </c>
       <c r="I24">
-        <v>0.01079337409238779</v>
+        <v>0.0100954461303866</v>
       </c>
       <c r="J24">
-        <v>0.2455398196910465</v>
+        <v>0.2538398317153039</v>
       </c>
       <c r="K24">
-        <v>0.3060266542551062</v>
+        <v>0.2591508790756443</v>
       </c>
       <c r="L24">
-        <v>0.1016463006437007</v>
+        <v>0.1345765530249921</v>
       </c>
       <c r="M24">
-        <v>5.219815337200203</v>
+        <v>0.07761112436664064</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.09907089045608686</v>
       </c>
       <c r="O24">
-        <v>1.188144432670754</v>
+        <v>5.208678811961249</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.033862482461373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.191851392153751</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9236882516174205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08137900720201685</v>
+        <v>0.05038369130102893</v>
       </c>
       <c r="D25">
-        <v>0.1899441023243469</v>
+        <v>0.1980767550463867</v>
       </c>
       <c r="E25">
-        <v>0.1058131872010506</v>
+        <v>0.1066487453886928</v>
       </c>
       <c r="F25">
-        <v>0.5184595234496427</v>
+        <v>0.4851034957778921</v>
       </c>
       <c r="G25">
-        <v>0.2580979798210734</v>
+        <v>0.2199591974199535</v>
       </c>
       <c r="H25">
-        <v>8.622926594759051E-06</v>
+        <v>1.93478088545973E-05</v>
       </c>
       <c r="I25">
-        <v>0.006573131381395036</v>
+        <v>0.00656584103001201</v>
       </c>
       <c r="J25">
-        <v>0.2493374872332268</v>
+        <v>0.2643564592040519</v>
       </c>
       <c r="K25">
-        <v>0.2900020857429766</v>
+        <v>0.2526741912164816</v>
       </c>
       <c r="L25">
-        <v>0.09385015589996115</v>
+        <v>0.1417500991342244</v>
       </c>
       <c r="M25">
-        <v>4.302099099138616</v>
+        <v>0.06322850813433334</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.09220070048105811</v>
       </c>
       <c r="O25">
-        <v>0.9777988689919681</v>
+        <v>4.295709931765884</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.017738166990796</v>
+        <v>0.9807944328700628</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9321022137733337</v>
       </c>
     </row>
   </sheetData>
